--- a/PraeterBV_Case.xlsx
+++ b/PraeterBV_Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Opdracht_1_voorbeeld"/>
@@ -1179,7 +1179,7 @@
   </sheetPr>
   <dimension ref="A1:AG50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8350,7 +8350,7 @@
   </sheetPr>
   <dimension ref="A1:Q181"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8553,10 +8553,10 @@
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="16">
-        <f>[1]Opdracht_2_input_output!A12</f>
+        <f>Opdracht_2_input_output!A12</f>
       </c>
       <c r="C8" s="17">
-        <f>[1]Opdracht_2_input_output!B12</f>
+        <f>Opdracht_2_input_output!B12</f>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -8623,7 +8623,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="19">
-        <f>[1]Opdracht_2_input_output!B21</f>
+        <f>Opdracht_2_input_output!B21</f>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13">
@@ -8670,7 +8670,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="19">
-        <f>[1]Opdracht_2_input_output!B22</f>
+        <f>Opdracht_2_input_output!B22</f>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
@@ -8761,7 +8761,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="19">
-        <f>[1]Opdracht_2_input_output!B25</f>
+        <f>Opdracht_2_input_output!B25</f>
       </c>
       <c r="D15" s="13">
         <f>IF(D5=0,Opdracht_2_input_output!$C$25,0)*-1</f>
@@ -8810,7 +8810,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="19">
-        <f>[1]Opdracht_2_input_output!B26</f>
+        <f>Opdracht_2_input_output!B26</f>
       </c>
       <c r="D16" s="13">
         <v>0</v>
@@ -8859,7 +8859,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="19">
-        <f>[1]Opdracht_2_input_output!B27</f>
+        <f>Opdracht_2_input_output!B27</f>
       </c>
       <c r="D17" s="13">
         <v>0</v>

--- a/PraeterBV_Case.xlsx
+++ b/PraeterBV_Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Opdracht_1_voorbeeld"/>
@@ -67,7 +67,7 @@
     <t>inputs</t>
   </si>
   <si>
-    <t xml:space="preserve">Afschrijving </t>
+    <t>Afschrijving</t>
   </si>
   <si>
     <t>Lineair</t>
@@ -76,13 +76,13 @@
     <t>output</t>
   </si>
   <si>
-    <t xml:space="preserve">Eigen Vermogen </t>
+    <t>Eigen Vermogen</t>
   </si>
   <si>
     <t>Stamgegevens</t>
   </si>
   <si>
-    <t xml:space="preserve">Rente VV </t>
+    <t>Rente VV</t>
   </si>
   <si>
     <t>1.</t>
@@ -100,40 +100,40 @@
     <t>jaar</t>
   </si>
   <si>
+    <t>HerinvesteringJaar</t>
+  </si>
+  <si>
+    <t>Investering</t>
+  </si>
+  <si>
+    <t>Subsidie (eenmalig)</t>
+  </si>
+  <si>
+    <t>Restwaarde</t>
+  </si>
+  <si>
+    <t>Besparing</t>
+  </si>
+  <si>
+    <t>Subsidie (jaarlijks)</t>
+  </si>
+  <si>
+    <t>Kosten</t>
+  </si>
+  <si>
+    <t>Eenmalige kosten</t>
+  </si>
+  <si>
+    <t>Vaste exploitatiekosten</t>
+  </si>
+  <si>
     <t>Herinvestering</t>
   </si>
   <si>
-    <t>Investering</t>
-  </si>
-  <si>
-    <t>Subsidie (eenmalig)</t>
-  </si>
-  <si>
-    <t>Restwaarde</t>
-  </si>
-  <si>
-    <t>Besparing</t>
-  </si>
-  <si>
-    <t>Subsidie (jaarlijks)</t>
-  </si>
-  <si>
-    <t>Kosten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eenmalige kosten </t>
-  </si>
-  <si>
-    <t>Vaste exploitatiekosten</t>
-  </si>
-  <si>
     <t>Financiering</t>
   </si>
   <si>
     <t>Totale investering</t>
-  </si>
-  <si>
-    <t>Afschrijving</t>
   </si>
   <si>
     <t>Aflossing</t>
@@ -440,12 +440,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -459,6 +453,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -636,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="76">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -650,34 +650,34 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -689,10 +689,10 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -701,58 +701,52 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -773,43 +767,40 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -821,13 +812,13 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -836,7 +827,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -845,13 +836,13 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
@@ -860,20 +851,17 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,39 +1171,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="25" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="25" width="3.4335714285714283" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="25" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="26" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="25" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="25" width="3.4335714285714283" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="25" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="25" width="3.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="25" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="26" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="79" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="26" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="25" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="25" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="25" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="79" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="79" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="26" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="24" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="24" width="3.4335714285714283" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="24" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="24" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="24" width="3.4335714285714283" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="24" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="24" width="3.5764285714285715" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="24" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="25" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="56" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="25" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="24" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="24" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="24" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="56" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="56" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="25" width="12.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1258,7 +1246,7 @@
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="30.75">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="58" t="s">
         <v>95</v>
       </c>
       <c r="D2" s="3"/>
@@ -1295,17 +1283,17 @@
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>96</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="59" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="27" t="s">
         <v>97</v>
       </c>
       <c r="J3" s="3"/>
@@ -1340,9 +1328,9 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="63"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="61" t="s">
         <v>52</v>
       </c>
       <c r="H4" s="8"/>
@@ -1370,39 +1358,39 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="65" t="s">
+      <c r="AE4" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="AF4" s="65" t="s">
+      <c r="AF4" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="AG4" s="66" t="s">
+      <c r="AG4" s="63" t="s">
         <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>102</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="63"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="64" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="65" t="s">
         <v>101</v>
       </c>
       <c r="M5" s="8"/>
@@ -1425,13 +1413,13 @@
       <c r="AD5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AE5" s="23">
+      <c r="AE5" s="4">
         <f>J8</f>
       </c>
-      <c r="AF5" s="23">
+      <c r="AF5" s="4">
         <f>K8</f>
       </c>
-      <c r="AG5" s="46">
+      <c r="AG5" s="3">
         <f>D13*D15+D14</f>
       </c>
     </row>
@@ -1441,23 +1429,23 @@
       <c r="C6" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="63"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="8"/>
       <c r="G6" s="1"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="45">
         <f>D13/D22</f>
       </c>
-      <c r="K6" s="54">
+      <c r="K6" s="51">
         <f>D13/(D22*D23)</f>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="45">
         <f>D13</f>
       </c>
       <c r="M6" s="8"/>
@@ -1480,13 +1468,13 @@
       <c r="AD6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AE6" s="23">
+      <c r="AE6" s="4">
         <f>J13</f>
       </c>
-      <c r="AF6" s="23">
+      <c r="AF6" s="4">
         <f>K13</f>
       </c>
-      <c r="AG6" s="46">
+      <c r="AG6" s="3">
         <f>(J11*D15+J12)*Opdracht_1_voorbeeld!D22</f>
       </c>
     </row>
@@ -1496,23 +1484,23 @@
       <c r="C7" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="63"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="8"/>
       <c r="G7" s="1"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="51">
         <f>D14/D22</f>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="51">
         <f>D14/(D22*D23)</f>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="45">
         <f>D14</f>
       </c>
       <c r="M7" s="8"/>
@@ -1543,23 +1531,23 @@
       <c r="C8" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="63"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="8"/>
       <c r="G8" s="1"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="51">
         <f>(D14+D13*D15)/D22</f>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="51">
         <f>(D14+D13*D15)/(D22*D23)</f>
       </c>
-      <c r="L8" s="48">
+      <c r="L8" s="45">
         <f>D14+D13*D15</f>
       </c>
       <c r="M8" s="8"/>
@@ -1590,10 +1578,10 @@
       <c r="C9" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="63"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="8"/>
       <c r="G9" s="1"/>
       <c r="H9" s="8"/>
@@ -1628,20 +1616,20 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="63"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="8"/>
       <c r="G10" s="1"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="65" t="s">
         <v>101</v>
       </c>
       <c r="M10" s="8"/>
@@ -1671,20 +1659,20 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="63"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="8"/>
       <c r="G11" s="1"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="51">
         <f>Opdracht_1_CBS!B6</f>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="51">
         <f>Opdracht_1_CBS!B9</f>
       </c>
-      <c r="L11" s="48">
+      <c r="L11" s="45">
         <f>J11*D22</f>
       </c>
       <c r="M11" s="8"/>
@@ -1712,24 +1700,24 @@
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="38" t="s">
         <v>117</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="63"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="8"/>
       <c r="G12" s="1"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="45">
         <f>Opdracht_1_CBS!B7</f>
       </c>
-      <c r="K12" s="54">
+      <c r="K12" s="51">
         <f>Opdracht_1_CBS!B10</f>
       </c>
-      <c r="L12" s="48">
+      <c r="L12" s="45">
         <f>J12*D22</f>
       </c>
       <c r="M12" s="8"/>
@@ -1760,10 +1748,10 @@
       <c r="C13" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="34">
         <v>130000</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="60" t="s">
         <v>119</v>
       </c>
       <c r="F13" s="8"/>
@@ -1772,13 +1760,13 @@
       <c r="I13" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="45">
         <f>J12+J11*D15</f>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="51">
         <f>K12+K11*D15</f>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="45">
         <f>L12+L11*D15</f>
       </c>
       <c r="M13" s="8"/>
@@ -1809,10 +1797,10 @@
       <c r="C14" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="34">
         <v>27400</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="60" t="s">
         <v>121</v>
       </c>
       <c r="F14" s="8"/>
@@ -1850,10 +1838,10 @@
       <c r="C15" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="34">
         <v>10</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="60" t="s">
         <v>123</v>
       </c>
       <c r="F15" s="8"/>
@@ -1891,22 +1879,22 @@
       <c r="C16" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="45">
         <f>D15*D14</f>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="60" t="s">
         <v>121</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="38"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="71"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="38"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="36"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1933,17 +1921,17 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="63"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="8"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="38"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="38"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="36"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1968,21 +1956,21 @@
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="1"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="38" t="s">
         <v>125</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="63"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="8"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="38"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="38"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2010,20 +1998,20 @@
       <c r="C19" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="34">
         <v>3</v>
       </c>
-      <c r="E19" s="63"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="8"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="38"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="38"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="36"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2051,22 +2039,22 @@
       <c r="C20" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="34">
         <v>2022</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="73">
         <f>VLOOKUP(D20,#REF!,3,TRUE)</f>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="38"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="38"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="36"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2094,20 +2082,20 @@
       <c r="C21" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="74" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="38"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="71"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="38"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="36"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2135,22 +2123,22 @@
       <c r="C22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="34">
         <v>50000</v>
       </c>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="60" t="s">
         <v>129</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="38"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J22" s="73"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="38"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="36"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2178,22 +2166,22 @@
       <c r="C23" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="34">
         <v>3</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="60" t="s">
         <v>131</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="38"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="38"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="36"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2220,17 +2208,17 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="63"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="8"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="38"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="38"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="36"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2255,12 +2243,12 @@
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="38"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="1" t="s">
         <v>67</v>
       </c>
@@ -2292,12 +2280,12 @@
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="1" t="s">
         <v>71</v>
       </c>
@@ -2329,12 +2317,12 @@
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="1" t="s">
         <v>78</v>
       </c>
@@ -2366,12 +2354,12 @@
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="1" t="s">
         <v>83</v>
       </c>
@@ -2403,12 +2391,12 @@
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="1" t="s">
         <v>88</v>
       </c>
@@ -2440,12 +2428,12 @@
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="1" t="s">
         <v>90</v>
       </c>
@@ -2477,12 +2465,12 @@
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="1" t="s">
         <v>91</v>
       </c>
@@ -3196,35 +3184,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="43" width="40.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="27" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="27" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="27" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="59" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="27" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="59" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="59" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="59" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="59" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="59" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="59" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="59" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="60" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="41" width="40.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="25" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="25" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="56" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="25" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="56" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="56" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="56" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="56" width="27.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="56" width="27.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="56" width="27.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="56" width="27.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="57" width="27.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="3"/>
@@ -3248,15 +3236,15 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="42" t="s">
         <v>43</v>
       </c>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="28"/>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="43" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3283,34 +3271,34 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="46">
+      <c r="W2" s="3">
         <v>0</v>
       </c>
-      <c r="X2" s="46">
+      <c r="X2" s="3">
         <v>250</v>
       </c>
-      <c r="Y2" s="46">
+      <c r="Y2" s="3">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="44">
         <f>Opdracht_1_voorbeeld!D20</f>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="45">
         <f>VLOOKUP($B$3,$B$16:$D$19,3,TRUE)</f>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="46" t="s">
         <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="4">
         <v>2.7</v>
       </c>
       <c r="H3" s="4"/>
@@ -3330,26 +3318,26 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="46">
+      <c r="W3" s="3">
         <v>251</v>
       </c>
-      <c r="X3" s="46">
+      <c r="X3" s="3">
         <v>500</v>
       </c>
-      <c r="Y3" s="46">
+      <c r="Y3" s="3">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="47">
         <f>Opdracht_1_voorbeeld!D21</f>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="48" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="3"/>
@@ -3371,28 +3359,28 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="46">
+      <c r="W4" s="3">
         <v>501</v>
       </c>
-      <c r="X4" s="46">
+      <c r="X4" s="3">
         <v>1000</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4" s="3">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="49">
         <f>Opdracht_1_voorbeeld!D22</f>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="45">
         <f>VLOOKUP($B$5,$W$2:$Y$6,3,TRUE)</f>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="50" t="s">
         <v>55</v>
       </c>
       <c r="F5" s="3"/>
@@ -3414,26 +3402,26 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="46">
+      <c r="W5" s="3">
         <v>1001</v>
       </c>
-      <c r="X5" s="46">
+      <c r="X5" s="3">
         <v>2500</v>
       </c>
-      <c r="Y5" s="46">
+      <c r="Y5" s="3">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="51">
         <f>INDEX(A16:I87,MATCH(1,(B4=A16:A87)*(C3=D16:D87),0),C5+4)</f>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="52" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="3"/>
@@ -3455,21 +3443,21 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="46">
+      <c r="W6" s="3">
         <v>2501</v>
       </c>
-      <c r="X6" s="46">
+      <c r="X6" s="3">
         <v>5000</v>
       </c>
-      <c r="Y6" s="46">
+      <c r="Y6" s="3">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="51">
         <f>INDEX(A16:N87,MATCH(1,(B4=A16:A87)*(C3=D16:D87),0),(C5+9))</f>
       </c>
       <c r="C7" s="3"/>
@@ -3499,7 +3487,7 @@
       <c r="Y7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="28"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3528,10 +3516,10 @@
       <c r="Y8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="51">
         <f>B6/G3</f>
       </c>
       <c r="C9" s="3"/>
@@ -3561,10 +3549,10 @@
       <c r="Y9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="51">
         <f>B7/G3</f>
       </c>
       <c r="C10" s="3"/>
@@ -3594,7 +3582,7 @@
       <c r="Y10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="28"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3623,40 +3611,40 @@
       <c r="Y11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="30"/>
-      <c r="B12" s="56" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="J12" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="57" t="s">
+      <c r="L12" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="57" t="s">
+      <c r="M12" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="57" t="s">
+      <c r="N12" s="54" t="s">
         <v>70</v>
       </c>
       <c r="O12" s="1"/>
@@ -3674,40 +3662,40 @@
       <c r="Y12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="30"/>
-      <c r="B13" s="56" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="I13" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="57" t="s">
+      <c r="L13" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="57" t="s">
+      <c r="M13" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="N13" s="57" t="s">
+      <c r="N13" s="54" t="s">
         <v>77</v>
       </c>
       <c r="O13" s="1"/>
@@ -3725,42 +3713,42 @@
       <c r="Y13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="J14" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="57" t="s">
+      <c r="L14" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="57" t="s">
+      <c r="M14" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="57" t="s">
+      <c r="N14" s="54" t="s">
         <v>82</v>
       </c>
       <c r="O14" s="1"/>
@@ -3778,46 +3766,46 @@
       <c r="Y14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="33">
-        <v>1</v>
-      </c>
-      <c r="F15" s="33">
+      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="F15" s="31">
         <v>2</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="31">
         <v>3</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="31">
         <v>4</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="31">
         <v>5</v>
       </c>
-      <c r="J15" s="33">
-        <v>1</v>
-      </c>
-      <c r="K15" s="33">
+      <c r="J15" s="31">
+        <v>1</v>
+      </c>
+      <c r="K15" s="31">
         <v>2</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="31">
         <v>3</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="31">
         <v>4</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="31">
         <v>5</v>
       </c>
       <c r="O15" s="1"/>
@@ -3835,46 +3823,46 @@
       <c r="Y15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="31">
         <v>0</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="31">
         <v>1921</v>
       </c>
-      <c r="D16" s="33">
-        <v>1</v>
-      </c>
-      <c r="E16" s="58">
+      <c r="D16" s="31">
+        <v>1</v>
+      </c>
+      <c r="E16" s="55">
         <v>19.8</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="55">
         <v>18.6</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="55">
         <v>16.5</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="31">
         <v>12</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="31">
         <v>12</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="55">
         <v>219.7</v>
       </c>
-      <c r="K16" s="58">
+      <c r="K16" s="55">
         <v>186.8</v>
       </c>
-      <c r="L16" s="58">
+      <c r="L16" s="55">
         <v>224.1</v>
       </c>
-      <c r="M16" s="58">
+      <c r="M16" s="55">
         <v>237.2</v>
       </c>
-      <c r="N16" s="57" t="s">
+      <c r="N16" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O16" s="1"/>
@@ -3892,46 +3880,46 @@
       <c r="Y16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="31">
         <v>1922</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="31">
         <v>1976</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="31">
         <v>2</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="55">
         <v>20.2</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="55">
         <v>17.8</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="55">
         <v>15.7</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="31">
         <v>12</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="31">
         <v>12</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="31">
         <v>232</v>
       </c>
-      <c r="K17" s="58">
+      <c r="K17" s="55">
         <v>179.8</v>
       </c>
-      <c r="L17" s="58">
+      <c r="L17" s="55">
         <v>252.2</v>
       </c>
-      <c r="M17" s="58">
+      <c r="M17" s="55">
         <v>289.3</v>
       </c>
-      <c r="N17" s="58">
+      <c r="N17" s="55">
         <v>217.9</v>
       </c>
       <c r="O17" s="1"/>
@@ -3949,46 +3937,46 @@
       <c r="Y17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="31">
         <v>1977</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="31">
         <v>1993</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="31">
         <v>3</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="55">
         <v>16.4</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="55">
         <v>17.9</v>
       </c>
-      <c r="G18" s="58">
+      <c r="G18" s="55">
         <v>12.6</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="31">
         <v>12</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="31">
         <v>12</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="55">
         <v>243.2</v>
       </c>
-      <c r="K18" s="58">
+      <c r="K18" s="55">
         <v>169.2</v>
       </c>
-      <c r="L18" s="58">
+      <c r="L18" s="55">
         <v>256.7</v>
       </c>
-      <c r="M18" s="58">
+      <c r="M18" s="55">
         <v>293.8</v>
       </c>
-      <c r="N18" s="57" t="s">
+      <c r="N18" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O18" s="1"/>
@@ -4006,46 +3994,46 @@
       <c r="Y18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="31">
         <v>1994</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="31">
         <v>2025</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="31">
         <v>4</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="55">
         <v>14.4</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="55">
         <v>12.5</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G19" s="55">
         <v>9.9</v>
       </c>
-      <c r="H19" s="58">
+      <c r="H19" s="55">
         <v>9.3</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="55">
         <v>5.9</v>
       </c>
-      <c r="J19" s="58">
+      <c r="J19" s="55">
         <v>233.9</v>
       </c>
-      <c r="K19" s="58">
+      <c r="K19" s="55">
         <v>148.9</v>
       </c>
-      <c r="L19" s="58">
+      <c r="L19" s="55">
         <v>221.1</v>
       </c>
-      <c r="M19" s="58">
+      <c r="M19" s="55">
         <v>265.3</v>
       </c>
-      <c r="N19" s="58">
+      <c r="N19" s="55">
         <v>196.9</v>
       </c>
       <c r="O19" s="1"/>
@@ -4063,46 +4051,46 @@
       <c r="Y19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="31">
         <v>0</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="31">
         <v>1921</v>
       </c>
-      <c r="D20" s="33">
-        <v>1</v>
-      </c>
-      <c r="E20" s="58">
+      <c r="D20" s="31">
+        <v>1</v>
+      </c>
+      <c r="E20" s="55">
         <v>17.8</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="55">
         <v>12.8</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="55">
         <v>9.7</v>
       </c>
-      <c r="H20" s="58">
+      <c r="H20" s="55">
         <v>7.6</v>
       </c>
-      <c r="I20" s="58">
+      <c r="I20" s="55">
         <v>7.6</v>
       </c>
-      <c r="J20" s="58">
+      <c r="J20" s="55">
         <v>98.7</v>
       </c>
-      <c r="K20" s="58">
+      <c r="K20" s="55">
         <v>80.1</v>
       </c>
-      <c r="L20" s="58">
+      <c r="L20" s="55">
         <v>70.3</v>
       </c>
-      <c r="M20" s="58">
+      <c r="M20" s="55">
         <v>73.2</v>
       </c>
-      <c r="N20" s="57" t="s">
+      <c r="N20" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O20" s="1"/>
@@ -4118,46 +4106,46 @@
       <c r="Y20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="31">
         <v>1922</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="31">
         <v>1976</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="31">
         <v>2</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="55">
         <v>18.1</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="55">
         <v>12.6</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="55">
         <v>9.4</v>
       </c>
-      <c r="H21" s="58">
+      <c r="H21" s="55">
         <v>7.5</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="55">
         <v>7.3</v>
       </c>
-      <c r="J21" s="58">
+      <c r="J21" s="55">
         <v>101.4</v>
       </c>
-      <c r="K21" s="58">
+      <c r="K21" s="55">
         <v>82.2</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L21" s="55">
         <v>67.7</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="31">
         <v>73</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="31">
         <v>71</v>
       </c>
       <c r="O21" s="1"/>
@@ -4173,46 +4161,46 @@
       <c r="Y21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="31">
         <v>1977</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="31">
         <v>1993</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="31">
         <v>3</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="55">
         <v>14.9</v>
       </c>
-      <c r="F22" s="58">
+      <c r="F22" s="55">
         <v>10.7</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="55">
         <v>8.6</v>
       </c>
-      <c r="H22" s="58">
+      <c r="H22" s="55">
         <v>7.6</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="55">
         <v>6.2</v>
       </c>
-      <c r="J22" s="58">
+      <c r="J22" s="55">
         <v>119.9</v>
       </c>
-      <c r="K22" s="58">
+      <c r="K22" s="55">
         <v>90.1</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L22" s="31">
         <v>72</v>
       </c>
-      <c r="M22" s="58">
+      <c r="M22" s="55">
         <v>80.1</v>
       </c>
-      <c r="N22" s="58">
+      <c r="N22" s="55">
         <v>59.1</v>
       </c>
       <c r="O22" s="1"/>
@@ -4228,46 +4216,46 @@
       <c r="Y22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="31">
         <v>1994</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="31">
         <v>2025</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="31">
         <v>4</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="55">
         <v>12.8</v>
       </c>
-      <c r="F23" s="58">
+      <c r="F23" s="55">
         <v>8.8</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="55">
         <v>6.9</v>
       </c>
-      <c r="H23" s="58">
+      <c r="H23" s="55">
         <v>5.8</v>
       </c>
-      <c r="I23" s="58">
+      <c r="I23" s="55">
         <v>5.5</v>
       </c>
-      <c r="J23" s="58">
+      <c r="J23" s="55">
         <v>116.4</v>
       </c>
-      <c r="K23" s="58">
+      <c r="K23" s="55">
         <v>94.7</v>
       </c>
-      <c r="L23" s="58">
+      <c r="L23" s="55">
         <v>74.6</v>
       </c>
-      <c r="M23" s="58">
+      <c r="M23" s="55">
         <v>76.9</v>
       </c>
-      <c r="N23" s="33">
+      <c r="N23" s="31">
         <v>75</v>
       </c>
       <c r="O23" s="1"/>
@@ -4283,46 +4271,46 @@
       <c r="Y23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="31">
         <v>0</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="31">
         <v>1921</v>
       </c>
-      <c r="D24" s="33">
-        <v>1</v>
-      </c>
-      <c r="E24" s="58">
+      <c r="D24" s="31">
+        <v>1</v>
+      </c>
+      <c r="E24" s="55">
         <v>18.9</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="55">
         <v>15.8</v>
       </c>
-      <c r="G24" s="58">
+      <c r="G24" s="55">
         <v>10.5</v>
       </c>
-      <c r="H24" s="58">
+      <c r="H24" s="55">
         <v>10.5</v>
       </c>
-      <c r="I24" s="58">
+      <c r="I24" s="55">
         <v>10.5</v>
       </c>
-      <c r="J24" s="58">
+      <c r="J24" s="55">
         <v>64.9</v>
       </c>
-      <c r="K24" s="58">
+      <c r="K24" s="55">
         <v>46.3</v>
       </c>
-      <c r="L24" s="58">
+      <c r="L24" s="55">
         <v>40.2</v>
       </c>
-      <c r="M24" s="57" t="s">
+      <c r="M24" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="N24" s="57" t="s">
+      <c r="N24" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O24" s="1"/>
@@ -4338,46 +4326,46 @@
       <c r="Y24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="31">
         <v>1922</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="31">
         <v>1976</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="31">
         <v>2</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="31">
         <v>21</v>
       </c>
-      <c r="F25" s="58">
+      <c r="F25" s="55">
         <v>14.8</v>
       </c>
-      <c r="G25" s="58">
+      <c r="G25" s="55">
         <v>10.7</v>
       </c>
-      <c r="H25" s="58">
+      <c r="H25" s="55">
         <v>7.8</v>
       </c>
-      <c r="I25" s="58">
+      <c r="I25" s="55">
         <v>7.5</v>
       </c>
-      <c r="J25" s="58">
+      <c r="J25" s="55">
         <v>67.8</v>
       </c>
-      <c r="K25" s="58">
+      <c r="K25" s="55">
         <v>52.3</v>
       </c>
-      <c r="L25" s="58">
+      <c r="L25" s="55">
         <v>44.5</v>
       </c>
-      <c r="M25" s="58">
+      <c r="M25" s="55">
         <v>44.1</v>
       </c>
-      <c r="N25" s="58">
+      <c r="N25" s="55">
         <v>41.6</v>
       </c>
       <c r="O25" s="1"/>
@@ -4393,46 +4381,46 @@
       <c r="Y25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="31">
         <v>1977</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="31">
         <v>1993</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="31">
         <v>3</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="55">
         <v>16.3</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F26" s="55">
         <v>11.4</v>
       </c>
-      <c r="G26" s="58">
+      <c r="G26" s="55">
         <v>9.9</v>
       </c>
-      <c r="H26" s="58">
+      <c r="H26" s="55">
         <v>8.6</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="55">
         <v>6.6</v>
       </c>
-      <c r="J26" s="58">
+      <c r="J26" s="55">
         <v>68.8</v>
       </c>
-      <c r="K26" s="58">
+      <c r="K26" s="55">
         <v>52.2</v>
       </c>
-      <c r="L26" s="58">
+      <c r="L26" s="55">
         <v>48.7</v>
       </c>
-      <c r="M26" s="58">
+      <c r="M26" s="55">
         <v>47.6</v>
       </c>
-      <c r="N26" s="58">
+      <c r="N26" s="55">
         <v>49.5</v>
       </c>
       <c r="O26" s="1"/>
@@ -4448,46 +4436,46 @@
       <c r="Y26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="31">
         <v>1994</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="31">
         <v>2025</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="31">
         <v>4</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="55">
         <v>11.7</v>
       </c>
-      <c r="F27" s="58">
+      <c r="F27" s="55">
         <v>9.1</v>
       </c>
-      <c r="G27" s="58">
+      <c r="G27" s="55">
         <v>7.4</v>
       </c>
-      <c r="H27" s="58">
+      <c r="H27" s="55">
         <v>6.2</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="55">
         <v>6.3</v>
       </c>
-      <c r="J27" s="58">
+      <c r="J27" s="55">
         <v>59.4</v>
       </c>
-      <c r="K27" s="58">
+      <c r="K27" s="55">
         <v>50.5</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="31">
         <v>46</v>
       </c>
-      <c r="M27" s="58">
+      <c r="M27" s="55">
         <v>48.7</v>
       </c>
-      <c r="N27" s="58">
+      <c r="N27" s="55">
         <v>54.3</v>
       </c>
       <c r="O27" s="1"/>
@@ -4503,46 +4491,46 @@
       <c r="Y27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="31">
         <v>0</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="31">
         <v>1921</v>
       </c>
-      <c r="D28" s="33">
-        <v>1</v>
-      </c>
-      <c r="E28" s="33">
+      <c r="D28" s="31">
+        <v>1</v>
+      </c>
+      <c r="E28" s="31">
         <v>19</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="55">
         <v>13.4</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G28" s="55">
         <v>9.3</v>
       </c>
-      <c r="H28" s="58">
+      <c r="H28" s="55">
         <v>9.3</v>
       </c>
-      <c r="I28" s="58">
+      <c r="I28" s="55">
         <v>9.3</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="31">
         <v>59</v>
       </c>
-      <c r="K28" s="58">
+      <c r="K28" s="55">
         <v>39.8</v>
       </c>
-      <c r="L28" s="58">
+      <c r="L28" s="55">
         <v>33.3</v>
       </c>
-      <c r="M28" s="57" t="s">
+      <c r="M28" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="N28" s="57" t="s">
+      <c r="N28" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O28" s="1"/>
@@ -4558,46 +4546,46 @@
       <c r="Y28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="31">
         <v>1922</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="31">
         <v>1976</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="31">
         <v>2</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="55">
         <v>20.3</v>
       </c>
-      <c r="F29" s="58">
+      <c r="F29" s="55">
         <v>12.3</v>
       </c>
-      <c r="G29" s="58">
+      <c r="G29" s="55">
         <v>9.6</v>
       </c>
-      <c r="H29" s="58">
+      <c r="H29" s="55">
         <v>8.7</v>
       </c>
-      <c r="I29" s="58">
+      <c r="I29" s="55">
         <v>9.2</v>
       </c>
-      <c r="J29" s="58">
+      <c r="J29" s="55">
         <v>66.1</v>
       </c>
-      <c r="K29" s="58">
+      <c r="K29" s="55">
         <v>44.6</v>
       </c>
-      <c r="L29" s="58">
+      <c r="L29" s="55">
         <v>39.5</v>
       </c>
-      <c r="M29" s="58">
+      <c r="M29" s="55">
         <v>41.9</v>
       </c>
-      <c r="N29" s="58">
+      <c r="N29" s="55">
         <v>39.9</v>
       </c>
       <c r="O29" s="1"/>
@@ -4613,46 +4601,46 @@
       <c r="Y29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="31">
         <v>1977</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="31">
         <v>1993</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="31">
         <v>3</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="55">
         <v>16.5</v>
       </c>
-      <c r="F30" s="58">
+      <c r="F30" s="55">
         <v>10.7</v>
       </c>
-      <c r="G30" s="58">
+      <c r="G30" s="55">
         <v>8.9</v>
       </c>
-      <c r="H30" s="58">
+      <c r="H30" s="55">
         <v>9.1</v>
       </c>
-      <c r="I30" s="58">
+      <c r="I30" s="55">
         <v>9.4</v>
       </c>
-      <c r="J30" s="58">
+      <c r="J30" s="55">
         <v>60.7</v>
       </c>
-      <c r="K30" s="58">
+      <c r="K30" s="55">
         <v>46.1</v>
       </c>
-      <c r="L30" s="58">
+      <c r="L30" s="55">
         <v>46.1</v>
       </c>
-      <c r="M30" s="58">
+      <c r="M30" s="55">
         <v>46.9</v>
       </c>
-      <c r="N30" s="58">
+      <c r="N30" s="55">
         <v>54.7</v>
       </c>
       <c r="O30" s="1"/>
@@ -4668,46 +4656,46 @@
       <c r="Y30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="31">
         <v>1994</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="31">
         <v>2025</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="31">
         <v>4</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="55">
         <v>13.5</v>
       </c>
-      <c r="F31" s="58">
+      <c r="F31" s="55">
         <v>9.1</v>
       </c>
-      <c r="G31" s="58">
+      <c r="G31" s="55">
         <v>7.7</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="31">
         <v>8</v>
       </c>
-      <c r="I31" s="58">
+      <c r="I31" s="55">
         <v>7.1</v>
       </c>
-      <c r="J31" s="58">
+      <c r="J31" s="55">
         <v>51.2</v>
       </c>
-      <c r="K31" s="58">
+      <c r="K31" s="55">
         <v>43.3</v>
       </c>
-      <c r="L31" s="58">
+      <c r="L31" s="55">
         <v>44.9</v>
       </c>
-      <c r="M31" s="33">
+      <c r="M31" s="31">
         <v>51</v>
       </c>
-      <c r="N31" s="58">
+      <c r="N31" s="55">
         <v>54.9</v>
       </c>
       <c r="O31" s="1"/>
@@ -4723,46 +4711,46 @@
       <c r="Y31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="31">
         <v>0</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="31">
         <v>1921</v>
       </c>
-      <c r="D32" s="33">
-        <v>1</v>
-      </c>
-      <c r="E32" s="58">
+      <c r="D32" s="31">
+        <v>1</v>
+      </c>
+      <c r="E32" s="55">
         <v>18.6</v>
       </c>
-      <c r="F32" s="58">
+      <c r="F32" s="55">
         <v>12.7</v>
       </c>
-      <c r="G32" s="58">
+      <c r="G32" s="55">
         <v>12.7</v>
       </c>
-      <c r="H32" s="58">
+      <c r="H32" s="55">
         <v>12.7</v>
       </c>
-      <c r="I32" s="58">
+      <c r="I32" s="55">
         <v>12.7</v>
       </c>
-      <c r="J32" s="58">
+      <c r="J32" s="55">
         <v>49.3</v>
       </c>
-      <c r="K32" s="58">
+      <c r="K32" s="55">
         <v>37.9</v>
       </c>
-      <c r="L32" s="57" t="s">
+      <c r="L32" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="M32" s="57" t="s">
+      <c r="M32" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="N32" s="57" t="s">
+      <c r="N32" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O32" s="1"/>
@@ -4778,46 +4766,46 @@
       <c r="Y32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="31">
         <v>1922</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="31">
         <v>1976</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="31">
         <v>2</v>
       </c>
-      <c r="E33" s="58">
+      <c r="E33" s="55">
         <v>20.4</v>
       </c>
-      <c r="F33" s="58">
+      <c r="F33" s="55">
         <v>13.6</v>
       </c>
-      <c r="G33" s="58">
+      <c r="G33" s="55">
         <v>12.2</v>
       </c>
-      <c r="H33" s="58">
+      <c r="H33" s="55">
         <v>11.5</v>
       </c>
-      <c r="I33" s="58">
+      <c r="I33" s="55">
         <v>11.5</v>
       </c>
-      <c r="J33" s="58">
+      <c r="J33" s="55">
         <v>68.3</v>
       </c>
-      <c r="K33" s="58">
+      <c r="K33" s="55">
         <v>50.4</v>
       </c>
-      <c r="L33" s="58">
+      <c r="L33" s="55">
         <v>47.4</v>
       </c>
-      <c r="M33" s="58">
+      <c r="M33" s="55">
         <v>46.9</v>
       </c>
-      <c r="N33" s="57" t="s">
+      <c r="N33" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O33" s="1"/>
@@ -4833,46 +4821,46 @@
       <c r="Y33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="31">
         <v>1977</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="31">
         <v>1993</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="31">
         <v>3</v>
       </c>
-      <c r="E34" s="58">
+      <c r="E34" s="55">
         <v>16.5</v>
       </c>
-      <c r="F34" s="58">
+      <c r="F34" s="55">
         <v>12.1</v>
       </c>
-      <c r="G34" s="58">
+      <c r="G34" s="55">
         <v>13.2</v>
       </c>
-      <c r="H34" s="58">
+      <c r="H34" s="55">
         <v>13.2</v>
       </c>
-      <c r="I34" s="58">
+      <c r="I34" s="55">
         <v>13.2</v>
       </c>
-      <c r="J34" s="58">
+      <c r="J34" s="55">
         <v>70.2</v>
       </c>
-      <c r="K34" s="58">
+      <c r="K34" s="55">
         <v>56.4</v>
       </c>
-      <c r="L34" s="58">
+      <c r="L34" s="55">
         <v>56.8</v>
       </c>
-      <c r="M34" s="58">
+      <c r="M34" s="55">
         <v>58.8</v>
       </c>
-      <c r="N34" s="57" t="s">
+      <c r="N34" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O34" s="1"/>
@@ -4888,46 +4876,46 @@
       <c r="Y34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="31">
         <v>1994</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="31">
         <v>2025</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="31">
         <v>4</v>
       </c>
-      <c r="E35" s="58">
+      <c r="E35" s="55">
         <v>11.8</v>
       </c>
-      <c r="F35" s="58">
+      <c r="F35" s="55">
         <v>10.8</v>
       </c>
-      <c r="G35" s="58">
+      <c r="G35" s="55">
         <v>11.1</v>
       </c>
-      <c r="H35" s="58">
+      <c r="H35" s="55">
         <v>12.4</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="31">
         <v>9</v>
       </c>
-      <c r="J35" s="58">
+      <c r="J35" s="55">
         <v>54.1</v>
       </c>
-      <c r="K35" s="58">
+      <c r="K35" s="55">
         <v>53.3</v>
       </c>
-      <c r="L35" s="58">
+      <c r="L35" s="55">
         <v>54.4</v>
       </c>
-      <c r="M35" s="58">
+      <c r="M35" s="55">
         <v>59.3</v>
       </c>
-      <c r="N35" s="58">
+      <c r="N35" s="55">
         <v>55.2</v>
       </c>
       <c r="O35" s="1"/>
@@ -4943,46 +4931,46 @@
       <c r="Y35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="31">
         <v>0</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="31">
         <v>1921</v>
       </c>
-      <c r="D36" s="33">
-        <v>1</v>
-      </c>
-      <c r="E36" s="58">
+      <c r="D36" s="31">
+        <v>1</v>
+      </c>
+      <c r="E36" s="55">
         <v>23.1</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="31">
         <v>17</v>
       </c>
-      <c r="G36" s="58">
+      <c r="G36" s="55">
         <v>14.7</v>
       </c>
-      <c r="H36" s="58">
+      <c r="H36" s="55">
         <v>11.8</v>
       </c>
-      <c r="I36" s="58">
+      <c r="I36" s="55">
         <v>11.8</v>
       </c>
-      <c r="J36" s="58">
+      <c r="J36" s="55">
         <v>167.4</v>
       </c>
-      <c r="K36" s="58">
+      <c r="K36" s="55">
         <v>120.5</v>
       </c>
-      <c r="L36" s="58">
+      <c r="L36" s="55">
         <v>93.9</v>
       </c>
-      <c r="M36" s="58">
+      <c r="M36" s="55">
         <v>75.9</v>
       </c>
-      <c r="N36" s="57" t="s">
+      <c r="N36" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O36" s="1"/>
@@ -4998,46 +4986,46 @@
       <c r="Y36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B37" s="31">
         <v>1922</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="31">
         <v>1976</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="31">
         <v>2</v>
       </c>
-      <c r="E37" s="58">
+      <c r="E37" s="55">
         <v>23.5</v>
       </c>
-      <c r="F37" s="58">
+      <c r="F37" s="55">
         <v>17.6</v>
       </c>
-      <c r="G37" s="58">
+      <c r="G37" s="55">
         <v>14.8</v>
       </c>
-      <c r="H37" s="58">
+      <c r="H37" s="55">
         <v>10.6</v>
       </c>
-      <c r="I37" s="58">
+      <c r="I37" s="55">
         <v>10.6</v>
       </c>
-      <c r="J37" s="58">
+      <c r="J37" s="55">
         <v>137.5</v>
       </c>
-      <c r="K37" s="58">
+      <c r="K37" s="55">
         <v>109.9</v>
       </c>
-      <c r="L37" s="58">
+      <c r="L37" s="55">
         <v>85.4</v>
       </c>
-      <c r="M37" s="58">
+      <c r="M37" s="55">
         <v>63.6</v>
       </c>
-      <c r="N37" s="57" t="s">
+      <c r="N37" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O37" s="1"/>
@@ -5053,46 +5041,46 @@
       <c r="Y37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="31">
         <v>1977</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="31">
         <v>1993</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D38" s="31">
         <v>3</v>
       </c>
-      <c r="E38" s="58">
+      <c r="E38" s="55">
         <v>18.9</v>
       </c>
-      <c r="F38" s="58">
+      <c r="F38" s="55">
         <v>16.8</v>
       </c>
-      <c r="G38" s="58">
+      <c r="G38" s="55">
         <v>13.6</v>
       </c>
-      <c r="H38" s="58">
+      <c r="H38" s="55">
         <v>13.6</v>
       </c>
-      <c r="I38" s="58">
+      <c r="I38" s="55">
         <v>13.6</v>
       </c>
-      <c r="J38" s="33">
+      <c r="J38" s="31">
         <v>124</v>
       </c>
-      <c r="K38" s="58">
+      <c r="K38" s="55">
         <v>125.8</v>
       </c>
-      <c r="L38" s="58">
+      <c r="L38" s="55">
         <v>104.8</v>
       </c>
-      <c r="M38" s="57" t="s">
+      <c r="M38" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="N38" s="57" t="s">
+      <c r="N38" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O38" s="1"/>
@@ -5108,46 +5096,46 @@
       <c r="Y38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="33">
+      <c r="B39" s="31">
         <v>1994</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="31">
         <v>2025</v>
       </c>
-      <c r="D39" s="33">
+      <c r="D39" s="31">
         <v>4</v>
       </c>
-      <c r="E39" s="58">
+      <c r="E39" s="55">
         <v>17.6</v>
       </c>
-      <c r="F39" s="58">
+      <c r="F39" s="55">
         <v>20.4</v>
       </c>
-      <c r="G39" s="58">
+      <c r="G39" s="55">
         <v>12.7</v>
       </c>
-      <c r="H39" s="58">
+      <c r="H39" s="55">
         <v>12.7</v>
       </c>
-      <c r="I39" s="58">
+      <c r="I39" s="55">
         <v>12.7</v>
       </c>
-      <c r="J39" s="58">
+      <c r="J39" s="55">
         <v>102.6</v>
       </c>
-      <c r="K39" s="58">
+      <c r="K39" s="55">
         <v>135.7</v>
       </c>
-      <c r="L39" s="58">
+      <c r="L39" s="55">
         <v>90.1</v>
       </c>
-      <c r="M39" s="57" t="s">
+      <c r="M39" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="N39" s="57" t="s">
+      <c r="N39" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O39" s="1"/>
@@ -5163,46 +5151,46 @@
       <c r="Y39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="33">
+      <c r="B40" s="31">
         <v>0</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="31">
         <v>1921</v>
       </c>
-      <c r="D40" s="33">
-        <v>1</v>
-      </c>
-      <c r="E40" s="58">
+      <c r="D40" s="31">
+        <v>1</v>
+      </c>
+      <c r="E40" s="55">
         <v>40.5</v>
       </c>
-      <c r="F40" s="58">
+      <c r="F40" s="55">
         <v>31.1</v>
       </c>
-      <c r="G40" s="58">
+      <c r="G40" s="55">
         <v>24.3</v>
       </c>
-      <c r="H40" s="58">
+      <c r="H40" s="55">
         <v>17.9</v>
       </c>
-      <c r="I40" s="58">
+      <c r="I40" s="55">
         <v>17.9</v>
       </c>
-      <c r="J40" s="58">
+      <c r="J40" s="55">
         <v>260.4</v>
       </c>
-      <c r="K40" s="58">
+      <c r="K40" s="55">
         <v>185.1</v>
       </c>
-      <c r="L40" s="58">
+      <c r="L40" s="55">
         <v>135.7</v>
       </c>
-      <c r="M40" s="58">
+      <c r="M40" s="55">
         <v>94.7</v>
       </c>
-      <c r="N40" s="57" t="s">
+      <c r="N40" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O40" s="1"/>
@@ -5218,46 +5206,46 @@
       <c r="Y40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B41" s="31">
         <v>1922</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="31">
         <v>1976</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D41" s="31">
         <v>2</v>
       </c>
-      <c r="E41" s="58">
+      <c r="E41" s="55">
         <v>39.5</v>
       </c>
-      <c r="F41" s="58">
+      <c r="F41" s="55">
         <v>34.5</v>
       </c>
-      <c r="G41" s="58">
+      <c r="G41" s="55">
         <v>26.5</v>
       </c>
-      <c r="H41" s="58">
+      <c r="H41" s="55">
         <v>20.4</v>
       </c>
-      <c r="I41" s="58">
+      <c r="I41" s="55">
         <v>20.4</v>
       </c>
-      <c r="J41" s="58">
+      <c r="J41" s="55">
         <v>217.7</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="31">
         <v>169</v>
       </c>
-      <c r="L41" s="58">
+      <c r="L41" s="55">
         <v>138.9</v>
       </c>
-      <c r="M41" s="58">
+      <c r="M41" s="55">
         <v>123.2</v>
       </c>
-      <c r="N41" s="57" t="s">
+      <c r="N41" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O41" s="1"/>
@@ -5273,46 +5261,46 @@
       <c r="Y41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="33">
+      <c r="B42" s="31">
         <v>1977</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="31">
         <v>1993</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="31">
         <v>3</v>
       </c>
-      <c r="E42" s="58">
+      <c r="E42" s="55">
         <v>33.4</v>
       </c>
-      <c r="F42" s="58">
+      <c r="F42" s="55">
         <v>35.9</v>
       </c>
-      <c r="G42" s="58">
+      <c r="G42" s="55">
         <v>29.1</v>
       </c>
-      <c r="H42" s="58">
+      <c r="H42" s="55">
         <v>29.1</v>
       </c>
-      <c r="I42" s="58">
+      <c r="I42" s="55">
         <v>29.1</v>
       </c>
-      <c r="J42" s="58">
+      <c r="J42" s="55">
         <v>214.5</v>
       </c>
-      <c r="K42" s="58">
+      <c r="K42" s="55">
         <v>205.8</v>
       </c>
-      <c r="L42" s="58">
+      <c r="L42" s="55">
         <v>169.3</v>
       </c>
-      <c r="M42" s="57" t="s">
+      <c r="M42" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="N42" s="57" t="s">
+      <c r="N42" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O42" s="1"/>
@@ -5328,46 +5316,46 @@
       <c r="Y42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="33">
+      <c r="B43" s="31">
         <v>1994</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="31">
         <v>2025</v>
       </c>
-      <c r="D43" s="33">
+      <c r="D43" s="31">
         <v>4</v>
       </c>
-      <c r="E43" s="58">
+      <c r="E43" s="55">
         <v>26.1</v>
       </c>
-      <c r="F43" s="33">
+      <c r="F43" s="31">
         <v>33</v>
       </c>
-      <c r="G43" s="33">
+      <c r="G43" s="31">
         <v>31</v>
       </c>
-      <c r="H43" s="58">
+      <c r="H43" s="55">
         <v>38.2</v>
       </c>
-      <c r="I43" s="58">
+      <c r="I43" s="55">
         <v>38.2</v>
       </c>
-      <c r="J43" s="58">
+      <c r="J43" s="55">
         <v>177.4</v>
       </c>
-      <c r="K43" s="58">
+      <c r="K43" s="55">
         <v>217.5</v>
       </c>
-      <c r="L43" s="58">
+      <c r="L43" s="55">
         <v>199.5</v>
       </c>
-      <c r="M43" s="58">
+      <c r="M43" s="55">
         <v>159.2</v>
       </c>
-      <c r="N43" s="57" t="s">
+      <c r="N43" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O43" s="1"/>
@@ -5383,46 +5371,46 @@
       <c r="Y43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="33">
+      <c r="B44" s="31">
         <v>0</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="31">
         <v>1921</v>
       </c>
-      <c r="D44" s="33">
-        <v>1</v>
-      </c>
-      <c r="E44" s="58">
+      <c r="D44" s="31">
+        <v>1</v>
+      </c>
+      <c r="E44" s="55">
         <v>40.3</v>
       </c>
-      <c r="F44" s="58">
+      <c r="F44" s="55">
         <v>25.8</v>
       </c>
-      <c r="G44" s="33">
+      <c r="G44" s="31">
         <v>19</v>
       </c>
-      <c r="H44" s="33">
+      <c r="H44" s="31">
         <v>19</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="31">
         <v>19</v>
       </c>
-      <c r="J44" s="58">
+      <c r="J44" s="55">
         <v>264.9</v>
       </c>
-      <c r="K44" s="58">
+      <c r="K44" s="55">
         <v>161.2</v>
       </c>
-      <c r="L44" s="58">
+      <c r="L44" s="55">
         <v>158.2</v>
       </c>
-      <c r="M44" s="57" t="s">
+      <c r="M44" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="N44" s="57" t="s">
+      <c r="N44" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O44" s="1"/>
@@ -5438,46 +5426,46 @@
       <c r="Y44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="33">
+      <c r="B45" s="31">
         <v>1922</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="31">
         <v>1976</v>
       </c>
-      <c r="D45" s="33">
+      <c r="D45" s="31">
         <v>2</v>
       </c>
-      <c r="E45" s="58">
+      <c r="E45" s="55">
         <v>36.6</v>
       </c>
-      <c r="F45" s="58">
+      <c r="F45" s="55">
         <v>36.1</v>
       </c>
-      <c r="G45" s="58">
+      <c r="G45" s="55">
         <v>28.5</v>
       </c>
-      <c r="H45" s="58">
+      <c r="H45" s="55">
         <v>28.5</v>
       </c>
-      <c r="I45" s="58">
+      <c r="I45" s="55">
         <v>28.5</v>
       </c>
-      <c r="J45" s="58">
+      <c r="J45" s="55">
         <v>258.8</v>
       </c>
-      <c r="K45" s="58">
+      <c r="K45" s="55">
         <v>153.5</v>
       </c>
-      <c r="L45" s="58">
+      <c r="L45" s="55">
         <v>150.5</v>
       </c>
-      <c r="M45" s="57" t="s">
+      <c r="M45" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="N45" s="57" t="s">
+      <c r="N45" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O45" s="1"/>
@@ -5493,46 +5481,46 @@
       <c r="Y45" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="33">
+      <c r="B46" s="31">
         <v>1977</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C46" s="31">
         <v>1993</v>
       </c>
-      <c r="D46" s="33">
+      <c r="D46" s="31">
         <v>3</v>
       </c>
-      <c r="E46" s="58">
+      <c r="E46" s="55">
         <v>31.3</v>
       </c>
-      <c r="F46" s="58">
+      <c r="F46" s="55">
         <v>36.5</v>
       </c>
-      <c r="G46" s="58">
+      <c r="G46" s="55">
         <v>36.5</v>
       </c>
-      <c r="H46" s="58">
+      <c r="H46" s="55">
         <v>36.5</v>
       </c>
-      <c r="I46" s="58">
+      <c r="I46" s="55">
         <v>36.5</v>
       </c>
-      <c r="J46" s="58">
+      <c r="J46" s="55">
         <v>295.2</v>
       </c>
-      <c r="K46" s="58">
+      <c r="K46" s="55">
         <v>211.4</v>
       </c>
-      <c r="L46" s="57" t="s">
+      <c r="L46" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="M46" s="57" t="s">
+      <c r="M46" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="N46" s="57" t="s">
+      <c r="N46" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O46" s="1"/>
@@ -5548,46 +5536,46 @@
       <c r="Y46" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="33">
+      <c r="B47" s="31">
         <v>1994</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="31">
         <v>2025</v>
       </c>
-      <c r="D47" s="33">
+      <c r="D47" s="31">
         <v>4</v>
       </c>
-      <c r="E47" s="58">
+      <c r="E47" s="55">
         <v>25.3</v>
       </c>
-      <c r="F47" s="58">
+      <c r="F47" s="55">
         <v>22.1</v>
       </c>
-      <c r="G47" s="33">
+      <c r="G47" s="31">
         <v>27</v>
       </c>
-      <c r="H47" s="33">
+      <c r="H47" s="31">
         <v>27</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="31">
         <v>27</v>
       </c>
-      <c r="J47" s="58">
+      <c r="J47" s="55">
         <v>256.3</v>
       </c>
-      <c r="K47" s="58">
+      <c r="K47" s="55">
         <v>218.8</v>
       </c>
-      <c r="L47" s="57" t="s">
+      <c r="L47" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="M47" s="57" t="s">
+      <c r="M47" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="N47" s="57" t="s">
+      <c r="N47" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O47" s="1"/>
@@ -5603,46 +5591,46 @@
       <c r="Y47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="33">
+      <c r="B48" s="31">
         <v>0</v>
       </c>
-      <c r="C48" s="33">
+      <c r="C48" s="31">
         <v>1921</v>
       </c>
-      <c r="D48" s="33">
-        <v>1</v>
-      </c>
-      <c r="E48" s="58">
+      <c r="D48" s="31">
+        <v>1</v>
+      </c>
+      <c r="E48" s="55">
         <v>25.1</v>
       </c>
-      <c r="F48" s="58">
+      <c r="F48" s="55">
         <v>23.5</v>
       </c>
-      <c r="G48" s="58">
+      <c r="G48" s="55">
         <v>21.4</v>
       </c>
-      <c r="H48" s="58">
+      <c r="H48" s="55">
         <v>21.8</v>
       </c>
-      <c r="I48" s="58">
+      <c r="I48" s="55">
         <v>21.8</v>
       </c>
-      <c r="J48" s="58">
+      <c r="J48" s="55">
         <v>93.2</v>
       </c>
-      <c r="K48" s="58">
+      <c r="K48" s="55">
         <v>68.5</v>
       </c>
-      <c r="L48" s="58">
+      <c r="L48" s="55">
         <v>82.9</v>
       </c>
-      <c r="M48" s="33">
+      <c r="M48" s="31">
         <v>94</v>
       </c>
-      <c r="N48" s="58">
+      <c r="N48" s="55">
         <v>101.5</v>
       </c>
       <c r="O48" s="1"/>
@@ -5658,46 +5646,46 @@
       <c r="Y48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="33">
+      <c r="B49" s="31">
         <v>1922</v>
       </c>
-      <c r="C49" s="33">
+      <c r="C49" s="31">
         <v>1976</v>
       </c>
-      <c r="D49" s="33">
+      <c r="D49" s="31">
         <v>2</v>
       </c>
-      <c r="E49" s="58">
+      <c r="E49" s="55">
         <v>17.4</v>
       </c>
-      <c r="F49" s="58">
+      <c r="F49" s="55">
         <v>21.5</v>
       </c>
-      <c r="G49" s="58">
+      <c r="G49" s="55">
         <v>26.3</v>
       </c>
-      <c r="H49" s="58">
+      <c r="H49" s="55">
         <v>22.1</v>
       </c>
-      <c r="I49" s="58">
+      <c r="I49" s="55">
         <v>22.9</v>
       </c>
-      <c r="J49" s="58">
+      <c r="J49" s="55">
         <v>62.7</v>
       </c>
-      <c r="K49" s="58">
+      <c r="K49" s="55">
         <v>75.5</v>
       </c>
-      <c r="L49" s="58">
+      <c r="L49" s="55">
         <v>80.4</v>
       </c>
-      <c r="M49" s="58">
+      <c r="M49" s="55">
         <v>94.9</v>
       </c>
-      <c r="N49" s="58">
+      <c r="N49" s="55">
         <v>97.5</v>
       </c>
       <c r="O49" s="1"/>
@@ -5713,46 +5701,46 @@
       <c r="Y49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="33">
+      <c r="B50" s="31">
         <v>1977</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C50" s="31">
         <v>1993</v>
       </c>
-      <c r="D50" s="33">
+      <c r="D50" s="31">
         <v>3</v>
       </c>
-      <c r="E50" s="58">
+      <c r="E50" s="55">
         <v>16.3</v>
       </c>
-      <c r="F50" s="58">
+      <c r="F50" s="55">
         <v>16.3</v>
       </c>
-      <c r="G50" s="58">
+      <c r="G50" s="55">
         <v>22.1</v>
       </c>
-      <c r="H50" s="58">
+      <c r="H50" s="55">
         <v>19.7</v>
       </c>
-      <c r="I50" s="58">
+      <c r="I50" s="55">
         <v>19.7</v>
       </c>
-      <c r="J50" s="58">
+      <c r="J50" s="55">
         <v>42.7</v>
       </c>
-      <c r="K50" s="57" t="s">
+      <c r="K50" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="L50" s="58">
+      <c r="L50" s="55">
         <v>100.7</v>
       </c>
-      <c r="M50" s="58">
+      <c r="M50" s="55">
         <v>119.4</v>
       </c>
-      <c r="N50" s="58">
+      <c r="N50" s="55">
         <v>110.8</v>
       </c>
       <c r="O50" s="1"/>
@@ -5768,46 +5756,46 @@
       <c r="Y50" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="33">
+      <c r="B51" s="31">
         <v>1994</v>
       </c>
-      <c r="C51" s="33">
+      <c r="C51" s="31">
         <v>2025</v>
       </c>
-      <c r="D51" s="33">
+      <c r="D51" s="31">
         <v>4</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="55">
         <v>22.6</v>
       </c>
-      <c r="F51" s="58">
+      <c r="F51" s="55">
         <v>22.6</v>
       </c>
-      <c r="G51" s="33">
+      <c r="G51" s="31">
         <v>21</v>
       </c>
-      <c r="H51" s="58">
+      <c r="H51" s="55">
         <v>21.1</v>
       </c>
-      <c r="I51" s="58">
+      <c r="I51" s="55">
         <v>21.1</v>
       </c>
-      <c r="J51" s="58">
+      <c r="J51" s="55">
         <v>45.5</v>
       </c>
-      <c r="K51" s="58">
+      <c r="K51" s="55">
         <v>73.9</v>
       </c>
-      <c r="L51" s="58">
+      <c r="L51" s="55">
         <v>103.3</v>
       </c>
-      <c r="M51" s="58">
+      <c r="M51" s="55">
         <v>93.1</v>
       </c>
-      <c r="N51" s="58">
+      <c r="N51" s="55">
         <v>124.2</v>
       </c>
       <c r="O51" s="1"/>
@@ -5823,46 +5811,46 @@
       <c r="Y51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="33">
+      <c r="B52" s="31">
         <v>0</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="31">
         <v>1921</v>
       </c>
-      <c r="D52" s="33">
-        <v>1</v>
-      </c>
-      <c r="E52" s="58">
+      <c r="D52" s="31">
+        <v>1</v>
+      </c>
+      <c r="E52" s="55">
         <v>22.4</v>
       </c>
-      <c r="F52" s="58">
+      <c r="F52" s="55">
         <v>19.3</v>
       </c>
-      <c r="G52" s="58">
+      <c r="G52" s="55">
         <v>17.3</v>
       </c>
-      <c r="H52" s="58">
+      <c r="H52" s="55">
         <v>13.8</v>
       </c>
-      <c r="I52" s="58">
+      <c r="I52" s="55">
         <v>13.8</v>
       </c>
-      <c r="J52" s="58">
+      <c r="J52" s="55">
         <v>56.1</v>
       </c>
-      <c r="K52" s="58">
+      <c r="K52" s="55">
         <v>51.3</v>
       </c>
-      <c r="L52" s="58">
+      <c r="L52" s="55">
         <v>42.7</v>
       </c>
-      <c r="M52" s="58">
+      <c r="M52" s="55">
         <v>53.9</v>
       </c>
-      <c r="N52" s="57" t="s">
+      <c r="N52" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O52" s="1"/>
@@ -5878,46 +5866,46 @@
       <c r="Y52" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="33">
+      <c r="B53" s="31">
         <v>1922</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C53" s="31">
         <v>1976</v>
       </c>
-      <c r="D53" s="33">
+      <c r="D53" s="31">
         <v>2</v>
       </c>
-      <c r="E53" s="58">
+      <c r="E53" s="55">
         <v>17.7</v>
       </c>
-      <c r="F53" s="58">
+      <c r="F53" s="55">
         <v>17.5</v>
       </c>
-      <c r="G53" s="33">
+      <c r="G53" s="31">
         <v>15</v>
       </c>
-      <c r="H53" s="58">
+      <c r="H53" s="55">
         <v>13.2</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="31">
         <v>11</v>
       </c>
-      <c r="J53" s="58">
+      <c r="J53" s="55">
         <v>58.9</v>
       </c>
-      <c r="K53" s="58">
+      <c r="K53" s="55">
         <v>46.1</v>
       </c>
-      <c r="L53" s="58">
+      <c r="L53" s="55">
         <v>47.7</v>
       </c>
-      <c r="M53" s="58">
+      <c r="M53" s="55">
         <v>48.1</v>
       </c>
-      <c r="N53" s="58">
+      <c r="N53" s="55">
         <v>81.9</v>
       </c>
       <c r="O53" s="1"/>
@@ -5933,46 +5921,46 @@
       <c r="Y53" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="33">
+      <c r="B54" s="31">
         <v>1977</v>
       </c>
-      <c r="C54" s="33">
+      <c r="C54" s="31">
         <v>1993</v>
       </c>
-      <c r="D54" s="33">
+      <c r="D54" s="31">
         <v>3</v>
       </c>
-      <c r="E54" s="58">
+      <c r="E54" s="55">
         <v>16.3</v>
       </c>
-      <c r="F54" s="58">
+      <c r="F54" s="55">
         <v>17.6</v>
       </c>
-      <c r="G54" s="58">
+      <c r="G54" s="55">
         <v>14.7</v>
       </c>
-      <c r="H54" s="58">
+      <c r="H54" s="55">
         <v>12.4</v>
       </c>
-      <c r="I54" s="58">
+      <c r="I54" s="55">
         <v>11.3</v>
       </c>
-      <c r="J54" s="58">
+      <c r="J54" s="55">
         <v>55.1</v>
       </c>
-      <c r="K54" s="58">
+      <c r="K54" s="55">
         <v>47.3</v>
       </c>
-      <c r="L54" s="58">
+      <c r="L54" s="55">
         <v>50.4</v>
       </c>
-      <c r="M54" s="58">
+      <c r="M54" s="55">
         <v>64.7</v>
       </c>
-      <c r="N54" s="58">
+      <c r="N54" s="55">
         <v>80.9</v>
       </c>
       <c r="O54" s="1"/>
@@ -5988,46 +5976,46 @@
       <c r="Y54" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="33">
+      <c r="B55" s="31">
         <v>1994</v>
       </c>
-      <c r="C55" s="33">
+      <c r="C55" s="31">
         <v>2025</v>
       </c>
-      <c r="D55" s="33">
+      <c r="D55" s="31">
         <v>4</v>
       </c>
-      <c r="E55" s="58">
+      <c r="E55" s="55">
         <v>17.8</v>
       </c>
-      <c r="F55" s="58">
+      <c r="F55" s="55">
         <v>17.1</v>
       </c>
-      <c r="G55" s="58">
+      <c r="G55" s="55">
         <v>13.7</v>
       </c>
-      <c r="H55" s="58">
+      <c r="H55" s="55">
         <v>10.7</v>
       </c>
-      <c r="I55" s="58">
+      <c r="I55" s="55">
         <v>14.5</v>
       </c>
-      <c r="J55" s="58">
+      <c r="J55" s="55">
         <v>73.6</v>
       </c>
-      <c r="K55" s="58">
+      <c r="K55" s="55">
         <v>56.9</v>
       </c>
-      <c r="L55" s="58">
+      <c r="L55" s="55">
         <v>65.6</v>
       </c>
-      <c r="M55" s="58">
+      <c r="M55" s="55">
         <v>62.3</v>
       </c>
-      <c r="N55" s="58">
+      <c r="N55" s="55">
         <v>89.9</v>
       </c>
       <c r="O55" s="1"/>
@@ -6043,46 +6031,46 @@
       <c r="Y55" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="33">
+      <c r="B56" s="31">
         <v>0</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="31">
         <v>1921</v>
       </c>
-      <c r="D56" s="33">
-        <v>1</v>
-      </c>
-      <c r="E56" s="58">
+      <c r="D56" s="31">
+        <v>1</v>
+      </c>
+      <c r="E56" s="55">
         <v>19.9</v>
       </c>
-      <c r="F56" s="58">
+      <c r="F56" s="55">
         <v>16.5</v>
       </c>
-      <c r="G56" s="58">
+      <c r="G56" s="55">
         <v>14.2</v>
       </c>
-      <c r="H56" s="58">
+      <c r="H56" s="55">
         <v>12.3</v>
       </c>
-      <c r="I56" s="58">
+      <c r="I56" s="55">
         <v>12.3</v>
       </c>
-      <c r="J56" s="58">
+      <c r="J56" s="55">
         <v>58.1</v>
       </c>
-      <c r="K56" s="58">
+      <c r="K56" s="55">
         <v>44.6</v>
       </c>
-      <c r="L56" s="58">
+      <c r="L56" s="55">
         <v>45.7</v>
       </c>
-      <c r="M56" s="33">
+      <c r="M56" s="31">
         <v>55</v>
       </c>
-      <c r="N56" s="57" t="s">
+      <c r="N56" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O56" s="1"/>
@@ -6098,46 +6086,46 @@
       <c r="Y56" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B57" s="31">
         <v>1922</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="31">
         <v>1976</v>
       </c>
-      <c r="D57" s="33">
+      <c r="D57" s="31">
         <v>2</v>
       </c>
-      <c r="E57" s="33">
+      <c r="E57" s="31">
         <v>20</v>
       </c>
-      <c r="F57" s="58">
+      <c r="F57" s="55">
         <v>16.5</v>
       </c>
-      <c r="G57" s="33">
+      <c r="G57" s="31">
         <v>14</v>
       </c>
-      <c r="H57" s="58">
+      <c r="H57" s="55">
         <v>11.9</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="31">
         <v>13</v>
       </c>
-      <c r="J57" s="58">
+      <c r="J57" s="55">
         <v>57.2</v>
       </c>
-      <c r="K57" s="58">
+      <c r="K57" s="55">
         <v>49.9</v>
       </c>
-      <c r="L57" s="58">
+      <c r="L57" s="55">
         <v>51.8</v>
       </c>
-      <c r="M57" s="58">
+      <c r="M57" s="55">
         <v>58.3</v>
       </c>
-      <c r="N57" s="58">
+      <c r="N57" s="55">
         <v>65.9</v>
       </c>
       <c r="O57" s="1"/>
@@ -6153,46 +6141,46 @@
       <c r="Y57" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="33">
+      <c r="B58" s="31">
         <v>1977</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="31">
         <v>1993</v>
       </c>
-      <c r="D58" s="33">
+      <c r="D58" s="31">
         <v>3</v>
       </c>
-      <c r="E58" s="58">
+      <c r="E58" s="55">
         <v>16.1</v>
       </c>
-      <c r="F58" s="58">
+      <c r="F58" s="55">
         <v>14.3</v>
       </c>
-      <c r="G58" s="58">
+      <c r="G58" s="55">
         <v>12.1</v>
       </c>
-      <c r="H58" s="33">
+      <c r="H58" s="31">
         <v>11</v>
       </c>
-      <c r="I58" s="58">
+      <c r="I58" s="55">
         <v>11.1</v>
       </c>
-      <c r="J58" s="58">
+      <c r="J58" s="55">
         <v>58.7</v>
       </c>
-      <c r="K58" s="33">
+      <c r="K58" s="31">
         <v>57</v>
       </c>
-      <c r="L58" s="58">
+      <c r="L58" s="55">
         <v>59.3</v>
       </c>
-      <c r="M58" s="33">
+      <c r="M58" s="31">
         <v>66</v>
       </c>
-      <c r="N58" s="58">
+      <c r="N58" s="55">
         <v>73.9</v>
       </c>
       <c r="O58" s="1"/>
@@ -6208,46 +6196,46 @@
       <c r="Y58" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="33">
+      <c r="B59" s="31">
         <v>1994</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="31">
         <v>2025</v>
       </c>
-      <c r="D59" s="33">
+      <c r="D59" s="31">
         <v>4</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="31">
         <v>12</v>
       </c>
-      <c r="F59" s="58">
+      <c r="F59" s="55">
         <v>11.4</v>
       </c>
-      <c r="G59" s="58">
+      <c r="G59" s="55">
         <v>11.1</v>
       </c>
-      <c r="H59" s="58">
+      <c r="H59" s="55">
         <v>10.3</v>
       </c>
-      <c r="I59" s="58">
+      <c r="I59" s="55">
         <v>9.7</v>
       </c>
-      <c r="J59" s="58">
+      <c r="J59" s="55">
         <v>55.9</v>
       </c>
-      <c r="K59" s="58">
+      <c r="K59" s="55">
         <v>53.8</v>
       </c>
-      <c r="L59" s="58">
+      <c r="L59" s="55">
         <v>60.8</v>
       </c>
-      <c r="M59" s="58">
+      <c r="M59" s="55">
         <v>71.4</v>
       </c>
-      <c r="N59" s="58">
+      <c r="N59" s="55">
         <v>81.2</v>
       </c>
       <c r="O59" s="1"/>
@@ -6263,46 +6251,46 @@
       <c r="Y59" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="33">
+      <c r="B60" s="31">
         <v>0</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="31">
         <v>1921</v>
       </c>
-      <c r="D60" s="33">
-        <v>1</v>
-      </c>
-      <c r="E60" s="57" t="s">
+      <c r="D60" s="31">
+        <v>1</v>
+      </c>
+      <c r="E60" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="F60" s="56" t="s">
+      <c r="F60" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="G60" s="58">
+      <c r="G60" s="55">
         <v>16.1</v>
       </c>
-      <c r="H60" s="58">
+      <c r="H60" s="55">
         <v>12.9</v>
       </c>
-      <c r="I60" s="58">
+      <c r="I60" s="55">
         <v>12.9</v>
       </c>
-      <c r="J60" s="57" t="s">
+      <c r="J60" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="K60" s="57" t="s">
+      <c r="K60" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="L60" s="58">
+      <c r="L60" s="55">
         <v>35.6</v>
       </c>
-      <c r="M60" s="58">
+      <c r="M60" s="55">
         <v>24.8</v>
       </c>
-      <c r="N60" s="58">
+      <c r="N60" s="55">
         <v>24.8</v>
       </c>
       <c r="O60" s="1"/>
@@ -6318,46 +6306,46 @@
       <c r="Y60" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="33">
+      <c r="B61" s="31">
         <v>1922</v>
       </c>
-      <c r="C61" s="33">
+      <c r="C61" s="31">
         <v>1976</v>
       </c>
-      <c r="D61" s="33">
+      <c r="D61" s="31">
         <v>2</v>
       </c>
-      <c r="E61" s="57" t="s">
+      <c r="E61" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="F61" s="58">
+      <c r="F61" s="55">
         <v>15.9</v>
       </c>
-      <c r="G61" s="33">
+      <c r="G61" s="31">
         <v>14</v>
       </c>
-      <c r="H61" s="58">
+      <c r="H61" s="55">
         <v>11.7</v>
       </c>
-      <c r="I61" s="58">
+      <c r="I61" s="55">
         <v>8.1</v>
       </c>
-      <c r="J61" s="57" t="s">
+      <c r="J61" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="K61" s="58">
+      <c r="K61" s="55">
         <v>32.3</v>
       </c>
-      <c r="L61" s="58">
+      <c r="L61" s="55">
         <v>28.1</v>
       </c>
-      <c r="M61" s="58">
+      <c r="M61" s="55">
         <v>25.1</v>
       </c>
-      <c r="N61" s="58">
+      <c r="N61" s="55">
         <v>18.6</v>
       </c>
       <c r="O61" s="1"/>
@@ -6373,46 +6361,46 @@
       <c r="Y61" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="33">
+      <c r="B62" s="31">
         <v>1977</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="31">
         <v>1993</v>
       </c>
-      <c r="D62" s="33">
+      <c r="D62" s="31">
         <v>3</v>
       </c>
-      <c r="E62" s="57" t="s">
+      <c r="E62" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="F62" s="58">
+      <c r="F62" s="55">
         <v>17.1</v>
       </c>
-      <c r="G62" s="33">
+      <c r="G62" s="31">
         <v>13</v>
       </c>
-      <c r="H62" s="58">
+      <c r="H62" s="55">
         <v>9.7</v>
       </c>
-      <c r="I62" s="58">
+      <c r="I62" s="55">
         <v>6.8</v>
       </c>
-      <c r="J62" s="57" t="s">
+      <c r="J62" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="K62" s="58">
+      <c r="K62" s="55">
         <v>34.3</v>
       </c>
-      <c r="L62" s="58">
+      <c r="L62" s="55">
         <v>29.8</v>
       </c>
-      <c r="M62" s="58">
+      <c r="M62" s="55">
         <v>27.3</v>
       </c>
-      <c r="N62" s="58">
+      <c r="N62" s="55">
         <v>21.1</v>
       </c>
       <c r="O62" s="1"/>
@@ -6428,46 +6416,46 @@
       <c r="Y62" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="33">
+      <c r="B63" s="31">
         <v>1994</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="31">
         <v>2025</v>
       </c>
-      <c r="D63" s="33">
+      <c r="D63" s="31">
         <v>4</v>
       </c>
-      <c r="E63" s="58">
+      <c r="E63" s="55">
         <v>19.8</v>
       </c>
-      <c r="F63" s="58">
+      <c r="F63" s="55">
         <v>16.3</v>
       </c>
-      <c r="G63" s="58">
+      <c r="G63" s="55">
         <v>13.8</v>
       </c>
-      <c r="H63" s="58">
+      <c r="H63" s="55">
         <v>8.6</v>
       </c>
-      <c r="I63" s="58">
+      <c r="I63" s="55">
         <v>19.6</v>
       </c>
-      <c r="J63" s="58">
+      <c r="J63" s="55">
         <v>40.2</v>
       </c>
-      <c r="K63" s="58">
+      <c r="K63" s="55">
         <v>40.5</v>
       </c>
-      <c r="L63" s="58">
+      <c r="L63" s="55">
         <v>34.7</v>
       </c>
-      <c r="M63" s="58">
+      <c r="M63" s="55">
         <v>34.3</v>
       </c>
-      <c r="N63" s="33">
+      <c r="N63" s="31">
         <v>37</v>
       </c>
       <c r="O63" s="1"/>
@@ -6483,46 +6471,46 @@
       <c r="Y63" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="33">
+      <c r="B64" s="31">
         <v>0</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C64" s="31">
         <v>1921</v>
       </c>
-      <c r="D64" s="33">
-        <v>1</v>
-      </c>
-      <c r="E64" s="58">
+      <c r="D64" s="31">
+        <v>1</v>
+      </c>
+      <c r="E64" s="55">
         <v>19.6</v>
       </c>
-      <c r="F64" s="58">
+      <c r="F64" s="55">
         <v>17.2</v>
       </c>
-      <c r="G64" s="58">
+      <c r="G64" s="55">
         <v>15.7</v>
       </c>
-      <c r="H64" s="58">
+      <c r="H64" s="55">
         <v>12.8</v>
       </c>
-      <c r="I64" s="58">
+      <c r="I64" s="55">
         <v>12.8</v>
       </c>
-      <c r="J64" s="58">
+      <c r="J64" s="55">
         <v>46.7</v>
       </c>
-      <c r="K64" s="58">
+      <c r="K64" s="55">
         <v>38.6</v>
       </c>
-      <c r="L64" s="58">
+      <c r="L64" s="55">
         <v>41.8</v>
       </c>
-      <c r="M64" s="33">
+      <c r="M64" s="31">
         <v>34</v>
       </c>
-      <c r="N64" s="57" t="s">
+      <c r="N64" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O64" s="1"/>
@@ -6538,46 +6526,46 @@
       <c r="Y64" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="33">
+      <c r="B65" s="31">
         <v>1922</v>
       </c>
-      <c r="C65" s="33">
+      <c r="C65" s="31">
         <v>1976</v>
       </c>
-      <c r="D65" s="33">
+      <c r="D65" s="31">
         <v>2</v>
       </c>
-      <c r="E65" s="58">
+      <c r="E65" s="55">
         <v>15.9</v>
       </c>
-      <c r="F65" s="58">
+      <c r="F65" s="55">
         <v>15.5</v>
       </c>
-      <c r="G65" s="58">
+      <c r="G65" s="55">
         <v>13.6</v>
       </c>
-      <c r="H65" s="58">
+      <c r="H65" s="55">
         <v>12.7</v>
       </c>
-      <c r="I65" s="58">
+      <c r="I65" s="55">
         <v>12.7</v>
       </c>
-      <c r="J65" s="58">
+      <c r="J65" s="55">
         <v>43.4</v>
       </c>
-      <c r="K65" s="58">
+      <c r="K65" s="55">
         <v>36.4</v>
       </c>
-      <c r="L65" s="58">
+      <c r="L65" s="55">
         <v>37.7</v>
       </c>
-      <c r="M65" s="58">
+      <c r="M65" s="55">
         <v>31.8</v>
       </c>
-      <c r="N65" s="57" t="s">
+      <c r="N65" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O65" s="1"/>
@@ -6593,46 +6581,46 @@
       <c r="Y65" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="33">
+      <c r="B66" s="31">
         <v>1977</v>
       </c>
-      <c r="C66" s="33">
+      <c r="C66" s="31">
         <v>1993</v>
       </c>
-      <c r="D66" s="33">
+      <c r="D66" s="31">
         <v>3</v>
       </c>
-      <c r="E66" s="58">
+      <c r="E66" s="55">
         <v>14.4</v>
       </c>
-      <c r="F66" s="58">
+      <c r="F66" s="55">
         <v>13.1</v>
       </c>
-      <c r="G66" s="58">
+      <c r="G66" s="55">
         <v>11.6</v>
       </c>
-      <c r="H66" s="58">
+      <c r="H66" s="55">
         <v>10.4</v>
       </c>
-      <c r="I66" s="58">
+      <c r="I66" s="55">
         <v>10.4</v>
       </c>
-      <c r="J66" s="58">
+      <c r="J66" s="55">
         <v>41.2</v>
       </c>
-      <c r="K66" s="58">
+      <c r="K66" s="55">
         <v>42.9</v>
       </c>
-      <c r="L66" s="58">
+      <c r="L66" s="55">
         <v>43.5</v>
       </c>
-      <c r="M66" s="58">
+      <c r="M66" s="55">
         <v>39.5</v>
       </c>
-      <c r="N66" s="57" t="s">
+      <c r="N66" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O66" s="1"/>
@@ -6648,46 +6636,46 @@
       <c r="Y66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="33">
+      <c r="B67" s="31">
         <v>1994</v>
       </c>
-      <c r="C67" s="33">
+      <c r="C67" s="31">
         <v>2025</v>
       </c>
-      <c r="D67" s="33">
+      <c r="D67" s="31">
         <v>4</v>
       </c>
-      <c r="E67" s="58">
+      <c r="E67" s="55">
         <v>16.4</v>
       </c>
-      <c r="F67" s="58">
+      <c r="F67" s="55">
         <v>15.8</v>
       </c>
-      <c r="G67" s="58">
+      <c r="G67" s="55">
         <v>13.6</v>
       </c>
-      <c r="H67" s="58">
+      <c r="H67" s="55">
         <v>19.6</v>
       </c>
-      <c r="I67" s="58">
+      <c r="I67" s="55">
         <v>19.6</v>
       </c>
-      <c r="J67" s="58">
+      <c r="J67" s="55">
         <v>44.9</v>
       </c>
-      <c r="K67" s="58">
+      <c r="K67" s="55">
         <v>47.7</v>
       </c>
-      <c r="L67" s="58">
+      <c r="L67" s="55">
         <v>42.7</v>
       </c>
-      <c r="M67" s="58">
+      <c r="M67" s="55">
         <v>44.2</v>
       </c>
-      <c r="N67" s="57" t="s">
+      <c r="N67" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O67" s="1"/>
@@ -6703,46 +6691,46 @@
       <c r="Y67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="33">
+      <c r="B68" s="31">
         <v>0</v>
       </c>
-      <c r="C68" s="33">
+      <c r="C68" s="31">
         <v>1921</v>
       </c>
-      <c r="D68" s="33">
-        <v>1</v>
-      </c>
-      <c r="E68" s="58">
+      <c r="D68" s="31">
+        <v>1</v>
+      </c>
+      <c r="E68" s="55">
         <v>19.4</v>
       </c>
-      <c r="F68" s="33">
+      <c r="F68" s="31">
         <v>16</v>
       </c>
-      <c r="G68" s="58">
+      <c r="G68" s="55">
         <v>14.7</v>
       </c>
-      <c r="H68" s="58">
+      <c r="H68" s="55">
         <v>14.7</v>
       </c>
-      <c r="I68" s="58">
+      <c r="I68" s="55">
         <v>14.7</v>
       </c>
-      <c r="J68" s="58">
+      <c r="J68" s="55">
         <v>60.9</v>
       </c>
-      <c r="K68" s="58">
+      <c r="K68" s="55">
         <v>42.6</v>
       </c>
-      <c r="L68" s="58">
+      <c r="L68" s="55">
         <v>34.7</v>
       </c>
-      <c r="M68" s="57" t="s">
+      <c r="M68" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="N68" s="57" t="s">
+      <c r="N68" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O68" s="1"/>
@@ -6758,46 +6746,46 @@
       <c r="Y68" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="33">
+      <c r="B69" s="31">
         <v>1922</v>
       </c>
-      <c r="C69" s="33">
+      <c r="C69" s="31">
         <v>1976</v>
       </c>
-      <c r="D69" s="33">
+      <c r="D69" s="31">
         <v>2</v>
       </c>
-      <c r="E69" s="33">
+      <c r="E69" s="31">
         <v>16</v>
       </c>
-      <c r="F69" s="58">
+      <c r="F69" s="55">
         <v>13.8</v>
       </c>
-      <c r="G69" s="58">
+      <c r="G69" s="55">
         <v>13.3</v>
       </c>
-      <c r="H69" s="58">
+      <c r="H69" s="55">
         <v>12.2</v>
       </c>
-      <c r="I69" s="58">
+      <c r="I69" s="55">
         <v>12.2</v>
       </c>
-      <c r="J69" s="58">
+      <c r="J69" s="55">
         <v>57.2</v>
       </c>
-      <c r="K69" s="58">
+      <c r="K69" s="55">
         <v>49.4</v>
       </c>
-      <c r="L69" s="58">
+      <c r="L69" s="55">
         <v>48.4</v>
       </c>
-      <c r="M69" s="58">
+      <c r="M69" s="55">
         <v>52.1</v>
       </c>
-      <c r="N69" s="57" t="s">
+      <c r="N69" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O69" s="1"/>
@@ -6813,46 +6801,46 @@
       <c r="Y69" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="33">
+      <c r="B70" s="31">
         <v>1977</v>
       </c>
-      <c r="C70" s="33">
+      <c r="C70" s="31">
         <v>1993</v>
       </c>
-      <c r="D70" s="33">
+      <c r="D70" s="31">
         <v>3</v>
       </c>
-      <c r="E70" s="58">
+      <c r="E70" s="55">
         <v>12.9</v>
       </c>
-      <c r="F70" s="58">
+      <c r="F70" s="55">
         <v>11.5</v>
       </c>
-      <c r="G70" s="58">
+      <c r="G70" s="55">
         <v>11.5</v>
       </c>
-      <c r="H70" s="58">
+      <c r="H70" s="55">
         <v>11.1</v>
       </c>
-      <c r="I70" s="58">
+      <c r="I70" s="55">
         <v>11.1</v>
       </c>
-      <c r="J70" s="58">
+      <c r="J70" s="55">
         <v>62.2</v>
       </c>
-      <c r="K70" s="58">
+      <c r="K70" s="55">
         <v>56.2</v>
       </c>
-      <c r="L70" s="58">
+      <c r="L70" s="55">
         <v>57.6</v>
       </c>
-      <c r="M70" s="58">
+      <c r="M70" s="55">
         <v>55.6</v>
       </c>
-      <c r="N70" s="57" t="s">
+      <c r="N70" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O70" s="1"/>
@@ -6868,46 +6856,46 @@
       <c r="Y70" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="33">
+      <c r="B71" s="31">
         <v>1994</v>
       </c>
-      <c r="C71" s="33">
+      <c r="C71" s="31">
         <v>2025</v>
       </c>
-      <c r="D71" s="33">
+      <c r="D71" s="31">
         <v>4</v>
       </c>
-      <c r="E71" s="58">
+      <c r="E71" s="55">
         <v>16.7</v>
       </c>
-      <c r="F71" s="58">
+      <c r="F71" s="55">
         <v>12.7</v>
       </c>
-      <c r="G71" s="58">
+      <c r="G71" s="55">
         <v>13.6</v>
       </c>
-      <c r="H71" s="33">
+      <c r="H71" s="31">
         <v>24</v>
       </c>
-      <c r="I71" s="33">
+      <c r="I71" s="31">
         <v>24</v>
       </c>
-      <c r="J71" s="58">
+      <c r="J71" s="55">
         <v>61.7</v>
       </c>
-      <c r="K71" s="58">
+      <c r="K71" s="55">
         <v>60.5</v>
       </c>
-      <c r="L71" s="58">
+      <c r="L71" s="55">
         <v>64.2</v>
       </c>
-      <c r="M71" s="58">
+      <c r="M71" s="55">
         <v>67.2</v>
       </c>
-      <c r="N71" s="57" t="s">
+      <c r="N71" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O71" s="1"/>
@@ -6923,46 +6911,46 @@
       <c r="Y71" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="33">
+      <c r="B72" s="31">
         <v>0</v>
       </c>
-      <c r="C72" s="33">
+      <c r="C72" s="31">
         <v>1921</v>
       </c>
-      <c r="D72" s="33">
-        <v>1</v>
-      </c>
-      <c r="E72" s="58">
+      <c r="D72" s="31">
+        <v>1</v>
+      </c>
+      <c r="E72" s="55">
         <v>21.9</v>
       </c>
-      <c r="F72" s="58">
+      <c r="F72" s="55">
         <v>19.3</v>
       </c>
-      <c r="G72" s="58">
+      <c r="G72" s="55">
         <v>19.8</v>
       </c>
-      <c r="H72" s="58">
+      <c r="H72" s="55">
         <v>18.9</v>
       </c>
-      <c r="I72" s="58">
+      <c r="I72" s="55">
         <v>18.9</v>
       </c>
-      <c r="J72" s="58">
+      <c r="J72" s="55">
         <v>65.5</v>
       </c>
-      <c r="K72" s="58">
+      <c r="K72" s="55">
         <v>58.8</v>
       </c>
-      <c r="L72" s="58">
+      <c r="L72" s="55">
         <v>54.2</v>
       </c>
-      <c r="M72" s="58">
+      <c r="M72" s="55">
         <v>48.2</v>
       </c>
-      <c r="N72" s="57" t="s">
+      <c r="N72" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O72" s="1"/>
@@ -6978,46 +6966,46 @@
       <c r="Y72" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="33">
+      <c r="B73" s="31">
         <v>1922</v>
       </c>
-      <c r="C73" s="33">
+      <c r="C73" s="31">
         <v>1976</v>
       </c>
-      <c r="D73" s="33">
+      <c r="D73" s="31">
         <v>2</v>
       </c>
-      <c r="E73" s="58">
+      <c r="E73" s="55">
         <v>18.9</v>
       </c>
-      <c r="F73" s="58">
+      <c r="F73" s="55">
         <v>18.9</v>
       </c>
-      <c r="G73" s="58">
+      <c r="G73" s="55">
         <v>17.5</v>
       </c>
-      <c r="H73" s="58">
+      <c r="H73" s="55">
         <v>16.6</v>
       </c>
-      <c r="I73" s="58">
+      <c r="I73" s="55">
         <v>18.1</v>
       </c>
-      <c r="J73" s="58">
+      <c r="J73" s="55">
         <v>46.8</v>
       </c>
-      <c r="K73" s="58">
+      <c r="K73" s="55">
         <v>46.9</v>
       </c>
-      <c r="L73" s="58">
+      <c r="L73" s="55">
         <v>46.5</v>
       </c>
-      <c r="M73" s="58">
+      <c r="M73" s="55">
         <v>53.9</v>
       </c>
-      <c r="N73" s="58">
+      <c r="N73" s="55">
         <v>60.8</v>
       </c>
       <c r="O73" s="1"/>
@@ -7033,46 +7021,46 @@
       <c r="Y73" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="33">
+      <c r="B74" s="31">
         <v>1977</v>
       </c>
-      <c r="C74" s="33">
+      <c r="C74" s="31">
         <v>1993</v>
       </c>
-      <c r="D74" s="33">
+      <c r="D74" s="31">
         <v>3</v>
       </c>
-      <c r="E74" s="58">
+      <c r="E74" s="55">
         <v>16.2</v>
       </c>
-      <c r="F74" s="58">
+      <c r="F74" s="55">
         <v>18.6</v>
       </c>
-      <c r="G74" s="58">
+      <c r="G74" s="55">
         <v>15.2</v>
       </c>
-      <c r="H74" s="58">
+      <c r="H74" s="55">
         <v>13.6</v>
       </c>
-      <c r="I74" s="58">
+      <c r="I74" s="55">
         <v>15.5</v>
       </c>
-      <c r="J74" s="58">
+      <c r="J74" s="55">
         <v>49.5</v>
       </c>
-      <c r="K74" s="58">
+      <c r="K74" s="55">
         <v>51.9</v>
       </c>
-      <c r="L74" s="58">
+      <c r="L74" s="55">
         <v>54.3</v>
       </c>
-      <c r="M74" s="58">
+      <c r="M74" s="55">
         <v>56.8</v>
       </c>
-      <c r="N74" s="58">
+      <c r="N74" s="55">
         <v>65.4</v>
       </c>
       <c r="O74" s="1"/>
@@ -7088,46 +7076,46 @@
       <c r="Y74" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B75" s="33">
+      <c r="B75" s="31">
         <v>1994</v>
       </c>
-      <c r="C75" s="33">
+      <c r="C75" s="31">
         <v>2025</v>
       </c>
-      <c r="D75" s="33">
+      <c r="D75" s="31">
         <v>4</v>
       </c>
-      <c r="E75" s="58">
+      <c r="E75" s="55">
         <v>21.3</v>
       </c>
-      <c r="F75" s="58">
+      <c r="F75" s="55">
         <v>19.6</v>
       </c>
-      <c r="G75" s="58">
+      <c r="G75" s="55">
         <v>16.7</v>
       </c>
-      <c r="H75" s="58">
+      <c r="H75" s="55">
         <v>21.7</v>
       </c>
-      <c r="I75" s="58">
+      <c r="I75" s="55">
         <v>19.2</v>
       </c>
-      <c r="J75" s="58">
+      <c r="J75" s="55">
         <v>49.9</v>
       </c>
-      <c r="K75" s="58">
+      <c r="K75" s="55">
         <v>62.9</v>
       </c>
-      <c r="L75" s="58">
+      <c r="L75" s="55">
         <v>59.3</v>
       </c>
-      <c r="M75" s="58">
+      <c r="M75" s="55">
         <v>61.4</v>
       </c>
-      <c r="N75" s="58">
+      <c r="N75" s="55">
         <v>71.5</v>
       </c>
       <c r="O75" s="1"/>
@@ -7143,46 +7131,46 @@
       <c r="Y75" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B76" s="33">
+      <c r="B76" s="31">
         <v>0</v>
       </c>
-      <c r="C76" s="33">
+      <c r="C76" s="31">
         <v>1921</v>
       </c>
-      <c r="D76" s="33">
-        <v>1</v>
-      </c>
-      <c r="E76" s="58">
+      <c r="D76" s="31">
+        <v>1</v>
+      </c>
+      <c r="E76" s="55">
         <v>19.7</v>
       </c>
-      <c r="F76" s="58">
+      <c r="F76" s="55">
         <v>18.1</v>
       </c>
-      <c r="G76" s="58">
+      <c r="G76" s="55">
         <v>14.6</v>
       </c>
-      <c r="H76" s="58">
+      <c r="H76" s="55">
         <v>14.6</v>
       </c>
-      <c r="I76" s="58">
+      <c r="I76" s="55">
         <v>14.6</v>
       </c>
-      <c r="J76" s="58">
+      <c r="J76" s="55">
         <v>54.2</v>
       </c>
-      <c r="K76" s="58">
+      <c r="K76" s="55">
         <v>55.3</v>
       </c>
-      <c r="L76" s="58">
+      <c r="L76" s="55">
         <v>53.4</v>
       </c>
-      <c r="M76" s="57" t="s">
+      <c r="M76" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="N76" s="57" t="s">
+      <c r="N76" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O76" s="1"/>
@@ -7198,46 +7186,46 @@
       <c r="Y76" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="33">
+      <c r="B77" s="31">
         <v>1922</v>
       </c>
-      <c r="C77" s="33">
+      <c r="C77" s="31">
         <v>1976</v>
       </c>
-      <c r="D77" s="33">
+      <c r="D77" s="31">
         <v>2</v>
       </c>
-      <c r="E77" s="58">
+      <c r="E77" s="55">
         <v>15.7</v>
       </c>
-      <c r="F77" s="58">
+      <c r="F77" s="55">
         <v>16.6</v>
       </c>
-      <c r="G77" s="58">
+      <c r="G77" s="55">
         <v>14.5</v>
       </c>
-      <c r="H77" s="58">
+      <c r="H77" s="55">
         <v>12.4</v>
       </c>
-      <c r="I77" s="58">
+      <c r="I77" s="55">
         <v>9.2</v>
       </c>
-      <c r="J77" s="33">
+      <c r="J77" s="31">
         <v>56</v>
       </c>
-      <c r="K77" s="58">
+      <c r="K77" s="55">
         <v>37.9</v>
       </c>
-      <c r="L77" s="58">
+      <c r="L77" s="55">
         <v>48.8</v>
       </c>
-      <c r="M77" s="58">
+      <c r="M77" s="55">
         <v>50.6</v>
       </c>
-      <c r="N77" s="58">
+      <c r="N77" s="55">
         <v>48.9</v>
       </c>
       <c r="O77" s="1"/>
@@ -7253,46 +7241,46 @@
       <c r="Y77" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="33">
+      <c r="B78" s="31">
         <v>1977</v>
       </c>
-      <c r="C78" s="33">
+      <c r="C78" s="31">
         <v>1993</v>
       </c>
-      <c r="D78" s="33">
+      <c r="D78" s="31">
         <v>3</v>
       </c>
-      <c r="E78" s="58">
+      <c r="E78" s="55">
         <v>14.3</v>
       </c>
-      <c r="F78" s="33">
+      <c r="F78" s="31">
         <v>13</v>
       </c>
-      <c r="G78" s="58">
+      <c r="G78" s="55">
         <v>10.4</v>
       </c>
-      <c r="H78" s="58">
+      <c r="H78" s="55">
         <v>9.5</v>
       </c>
-      <c r="I78" s="58">
+      <c r="I78" s="55">
         <v>9.2</v>
       </c>
-      <c r="J78" s="58">
+      <c r="J78" s="55">
         <v>54.2</v>
       </c>
-      <c r="K78" s="33">
+      <c r="K78" s="31">
         <v>42</v>
       </c>
-      <c r="L78" s="58">
+      <c r="L78" s="55">
         <v>51.4</v>
       </c>
-      <c r="M78" s="58">
+      <c r="M78" s="55">
         <v>57.9</v>
       </c>
-      <c r="N78" s="58">
+      <c r="N78" s="55">
         <v>52.1</v>
       </c>
       <c r="O78" s="1"/>
@@ -7308,46 +7296,46 @@
       <c r="Y78" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="33">
+      <c r="B79" s="31">
         <v>1994</v>
       </c>
-      <c r="C79" s="33">
+      <c r="C79" s="31">
         <v>2025</v>
       </c>
-      <c r="D79" s="33">
+      <c r="D79" s="31">
         <v>4</v>
       </c>
-      <c r="E79" s="58">
+      <c r="E79" s="55">
         <v>16.4</v>
       </c>
-      <c r="F79" s="58">
+      <c r="F79" s="55">
         <v>11.6</v>
       </c>
-      <c r="G79" s="58">
+      <c r="G79" s="55">
         <v>12.2</v>
       </c>
-      <c r="H79" s="58">
+      <c r="H79" s="55">
         <v>10.5</v>
       </c>
-      <c r="I79" s="58">
+      <c r="I79" s="55">
         <v>21.4</v>
       </c>
-      <c r="J79" s="58">
+      <c r="J79" s="55">
         <v>54.3</v>
       </c>
-      <c r="K79" s="58">
+      <c r="K79" s="55">
         <v>52.4</v>
       </c>
-      <c r="L79" s="58">
+      <c r="L79" s="55">
         <v>58.6</v>
       </c>
-      <c r="M79" s="58">
+      <c r="M79" s="55">
         <v>68.1</v>
       </c>
-      <c r="N79" s="58">
+      <c r="N79" s="55">
         <v>66.6</v>
       </c>
       <c r="O79" s="1"/>
@@ -7363,46 +7351,46 @@
       <c r="Y79" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="33">
+      <c r="B80" s="31">
         <v>0</v>
       </c>
-      <c r="C80" s="33">
+      <c r="C80" s="31">
         <v>1921</v>
       </c>
-      <c r="D80" s="33">
-        <v>1</v>
-      </c>
-      <c r="E80" s="58">
+      <c r="D80" s="31">
+        <v>1</v>
+      </c>
+      <c r="E80" s="55">
         <v>18.6</v>
       </c>
-      <c r="F80" s="58">
+      <c r="F80" s="55">
         <v>17.3</v>
       </c>
-      <c r="G80" s="58">
+      <c r="G80" s="55">
         <v>17.3</v>
       </c>
-      <c r="H80" s="58">
+      <c r="H80" s="55">
         <v>17.3</v>
       </c>
-      <c r="I80" s="58">
+      <c r="I80" s="55">
         <v>17.3</v>
       </c>
-      <c r="J80" s="33">
+      <c r="J80" s="31">
         <v>97</v>
       </c>
-      <c r="K80" s="58">
+      <c r="K80" s="55">
         <v>67.6</v>
       </c>
-      <c r="L80" s="57" t="s">
+      <c r="L80" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="M80" s="57" t="s">
+      <c r="M80" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="N80" s="57" t="s">
+      <c r="N80" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O80" s="1"/>
@@ -7418,46 +7406,46 @@
       <c r="Y80" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="33">
+      <c r="B81" s="31">
         <v>1922</v>
       </c>
-      <c r="C81" s="33">
+      <c r="C81" s="31">
         <v>1976</v>
       </c>
-      <c r="D81" s="33">
+      <c r="D81" s="31">
         <v>2</v>
       </c>
-      <c r="E81" s="58">
+      <c r="E81" s="55">
         <v>16.5</v>
       </c>
-      <c r="F81" s="58">
+      <c r="F81" s="55">
         <v>15.7</v>
       </c>
-      <c r="G81" s="58">
+      <c r="G81" s="55">
         <v>13.9</v>
       </c>
-      <c r="H81" s="33">
+      <c r="H81" s="31">
         <v>9</v>
       </c>
-      <c r="I81" s="33">
+      <c r="I81" s="31">
         <v>9</v>
       </c>
-      <c r="J81" s="33">
+      <c r="J81" s="31">
         <v>88</v>
       </c>
-      <c r="K81" s="58">
+      <c r="K81" s="55">
         <v>76.5</v>
       </c>
-      <c r="L81" s="58">
+      <c r="L81" s="55">
         <v>61.6</v>
       </c>
-      <c r="M81" s="58">
+      <c r="M81" s="55">
         <v>45.2</v>
       </c>
-      <c r="N81" s="57" t="s">
+      <c r="N81" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O81" s="1"/>
@@ -7473,46 +7461,46 @@
       <c r="Y81" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="33">
+      <c r="B82" s="31">
         <v>1977</v>
       </c>
-      <c r="C82" s="33">
+      <c r="C82" s="31">
         <v>1993</v>
       </c>
-      <c r="D82" s="33">
+      <c r="D82" s="31">
         <v>3</v>
       </c>
-      <c r="E82" s="58">
+      <c r="E82" s="55">
         <v>14.2</v>
       </c>
-      <c r="F82" s="58">
+      <c r="F82" s="55">
         <v>14.4</v>
       </c>
-      <c r="G82" s="58">
+      <c r="G82" s="55">
         <v>12.4</v>
       </c>
-      <c r="H82" s="58">
+      <c r="H82" s="55">
         <v>9.8</v>
       </c>
-      <c r="I82" s="58">
+      <c r="I82" s="55">
         <v>9.8</v>
       </c>
-      <c r="J82" s="58">
+      <c r="J82" s="55">
         <v>93.3</v>
       </c>
-      <c r="K82" s="58">
+      <c r="K82" s="55">
         <v>82.9</v>
       </c>
-      <c r="L82" s="58">
+      <c r="L82" s="55">
         <v>62.8</v>
       </c>
-      <c r="M82" s="58">
+      <c r="M82" s="55">
         <v>49.3</v>
       </c>
-      <c r="N82" s="57" t="s">
+      <c r="N82" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O82" s="1"/>
@@ -7528,46 +7516,46 @@
       <c r="Y82" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="33">
+      <c r="B83" s="31">
         <v>1994</v>
       </c>
-      <c r="C83" s="33">
+      <c r="C83" s="31">
         <v>2025</v>
       </c>
-      <c r="D83" s="33">
+      <c r="D83" s="31">
         <v>4</v>
       </c>
-      <c r="E83" s="58">
+      <c r="E83" s="55">
         <v>14.8</v>
       </c>
-      <c r="F83" s="58">
+      <c r="F83" s="55">
         <v>15.5</v>
       </c>
-      <c r="G83" s="58">
+      <c r="G83" s="55">
         <v>10.7</v>
       </c>
-      <c r="H83" s="58">
+      <c r="H83" s="55">
         <v>19.4</v>
       </c>
-      <c r="I83" s="58">
+      <c r="I83" s="55">
         <v>19.4</v>
       </c>
-      <c r="J83" s="58">
+      <c r="J83" s="55">
         <v>77.6</v>
       </c>
-      <c r="K83" s="58">
+      <c r="K83" s="55">
         <v>84.2</v>
       </c>
-      <c r="L83" s="58">
+      <c r="L83" s="55">
         <v>73.4</v>
       </c>
-      <c r="M83" s="58">
+      <c r="M83" s="55">
         <v>58.2</v>
       </c>
-      <c r="N83" s="57" t="s">
+      <c r="N83" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O83" s="1"/>
@@ -7583,46 +7571,46 @@
       <c r="Y83" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="33">
+      <c r="B84" s="31">
         <v>0</v>
       </c>
-      <c r="C84" s="33">
+      <c r="C84" s="31">
         <v>1921</v>
       </c>
-      <c r="D84" s="33">
-        <v>1</v>
-      </c>
-      <c r="E84" s="58">
+      <c r="D84" s="31">
+        <v>1</v>
+      </c>
+      <c r="E84" s="55">
         <v>19.4</v>
       </c>
-      <c r="F84" s="33">
+      <c r="F84" s="31">
         <v>16</v>
       </c>
-      <c r="G84" s="58">
+      <c r="G84" s="55">
         <v>13.4</v>
       </c>
-      <c r="H84" s="58">
+      <c r="H84" s="55">
         <v>10.4</v>
       </c>
-      <c r="I84" s="58">
+      <c r="I84" s="55">
         <v>10.4</v>
       </c>
-      <c r="J84" s="58">
+      <c r="J84" s="55">
         <v>23.9</v>
       </c>
-      <c r="K84" s="33">
+      <c r="K84" s="31">
         <v>19</v>
       </c>
-      <c r="L84" s="58">
+      <c r="L84" s="55">
         <v>17.4</v>
       </c>
-      <c r="M84" s="58">
+      <c r="M84" s="55">
         <v>16.4</v>
       </c>
-      <c r="N84" s="57" t="s">
+      <c r="N84" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O84" s="1"/>
@@ -7638,46 +7626,46 @@
       <c r="Y84" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B85" s="33">
+      <c r="B85" s="31">
         <v>1922</v>
       </c>
-      <c r="C85" s="33">
+      <c r="C85" s="31">
         <v>1976</v>
       </c>
-      <c r="D85" s="33">
+      <c r="D85" s="31">
         <v>2</v>
       </c>
-      <c r="E85" s="58">
+      <c r="E85" s="55">
         <v>18.7</v>
       </c>
-      <c r="F85" s="58">
+      <c r="F85" s="55">
         <v>16.5</v>
       </c>
-      <c r="G85" s="58">
+      <c r="G85" s="55">
         <v>14.5</v>
       </c>
-      <c r="H85" s="58">
+      <c r="H85" s="55">
         <v>10.6</v>
       </c>
-      <c r="I85" s="58">
+      <c r="I85" s="55">
         <v>10.6</v>
       </c>
-      <c r="J85" s="58">
+      <c r="J85" s="55">
         <v>25.4</v>
       </c>
-      <c r="K85" s="58">
+      <c r="K85" s="55">
         <v>19.7</v>
       </c>
-      <c r="L85" s="58">
+      <c r="L85" s="55">
         <v>17.5</v>
       </c>
-      <c r="M85" s="58">
+      <c r="M85" s="55">
         <v>15.7</v>
       </c>
-      <c r="N85" s="57" t="s">
+      <c r="N85" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O85" s="1"/>
@@ -7693,46 +7681,46 @@
       <c r="Y85" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="30" t="s">
+      <c r="A86" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B86" s="33">
+      <c r="B86" s="31">
         <v>1977</v>
       </c>
-      <c r="C86" s="33">
+      <c r="C86" s="31">
         <v>1993</v>
       </c>
-      <c r="D86" s="33">
+      <c r="D86" s="31">
         <v>3</v>
       </c>
-      <c r="E86" s="58">
+      <c r="E86" s="55">
         <v>16.9</v>
       </c>
-      <c r="F86" s="58">
+      <c r="F86" s="55">
         <v>14.1</v>
       </c>
-      <c r="G86" s="58">
+      <c r="G86" s="55">
         <v>12.6</v>
       </c>
-      <c r="H86" s="58">
+      <c r="H86" s="55">
         <v>8.6</v>
       </c>
-      <c r="I86" s="58">
+      <c r="I86" s="55">
         <v>8.6</v>
       </c>
-      <c r="J86" s="33">
+      <c r="J86" s="31">
         <v>30</v>
       </c>
-      <c r="K86" s="58">
+      <c r="K86" s="55">
         <v>21.2</v>
       </c>
-      <c r="L86" s="58">
+      <c r="L86" s="55">
         <v>19.5</v>
       </c>
-      <c r="M86" s="58">
+      <c r="M86" s="55">
         <v>21.4</v>
       </c>
-      <c r="N86" s="57" t="s">
+      <c r="N86" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O86" s="1"/>
@@ -7748,46 +7736,46 @@
       <c r="Y86" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="33">
+      <c r="B87" s="31">
         <v>1994</v>
       </c>
-      <c r="C87" s="33">
+      <c r="C87" s="31">
         <v>2025</v>
       </c>
-      <c r="D87" s="33">
+      <c r="D87" s="31">
         <v>4</v>
       </c>
-      <c r="E87" s="58">
+      <c r="E87" s="55">
         <v>13.2</v>
       </c>
-      <c r="F87" s="33">
+      <c r="F87" s="31">
         <v>13</v>
       </c>
-      <c r="G87" s="58">
+      <c r="G87" s="55">
         <v>10.7</v>
       </c>
-      <c r="H87" s="58">
+      <c r="H87" s="55">
         <v>8.2</v>
       </c>
-      <c r="I87" s="58">
+      <c r="I87" s="55">
         <v>8.2</v>
       </c>
-      <c r="J87" s="58">
+      <c r="J87" s="55">
         <v>25.8</v>
       </c>
-      <c r="K87" s="58">
+      <c r="K87" s="55">
         <v>22.5</v>
       </c>
-      <c r="L87" s="58">
+      <c r="L87" s="55">
         <v>20.5</v>
       </c>
-      <c r="M87" s="58">
+      <c r="M87" s="55">
         <v>21.2</v>
       </c>
-      <c r="N87" s="57" t="s">
+      <c r="N87" s="54" t="s">
         <v>89</v>
       </c>
       <c r="O87" s="1"/>
@@ -7814,135 +7802,135 @@
   </sheetPr>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="25" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="43" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="27" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="43" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="25" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="24" width="5.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="41" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="25" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="41" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="24" width="13.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1"/>
-      <c r="B1" s="28"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="28"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="28"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
-      <c r="B3" s="28"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="28"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>0.02</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="32" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>0.2</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="32">
         <v>0.04</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="32">
         <v>0.165</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
-      <c r="B10" s="28"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="28"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
-      <c r="B11" s="28"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="28"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
@@ -7950,7 +7938,7 @@
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -7963,7 +7951,7 @@
       <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -7974,7 +7962,7 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="8"/>
       <c r="E15" s="1"/>
     </row>
@@ -7983,7 +7971,7 @@
       <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="34">
         <v>160000</v>
       </c>
       <c r="D16" s="8"/>
@@ -7994,7 +7982,7 @@
       <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="34">
         <v>10000</v>
       </c>
       <c r="D17" s="8"/>
@@ -8005,7 +7993,7 @@
       <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="34">
         <v>0</v>
       </c>
       <c r="D18" s="8"/>
@@ -8014,7 +8002,7 @@
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="24"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="8"/>
       <c r="E19" s="1"/>
     </row>
@@ -8023,7 +8011,7 @@
       <c r="B20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="8"/>
       <c r="E20" s="1"/>
     </row>
@@ -8032,7 +8020,7 @@
       <c r="B21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="34">
         <v>20000</v>
       </c>
       <c r="D21" s="8"/>
@@ -8043,7 +8031,7 @@
       <c r="B22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="34">
         <v>800</v>
       </c>
       <c r="D22" s="8"/>
@@ -8052,7 +8040,7 @@
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="24"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="8"/>
       <c r="E23" s="1"/>
     </row>
@@ -8061,7 +8049,7 @@
       <c r="B24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="8"/>
       <c r="E24" s="1"/>
     </row>
@@ -8070,7 +8058,7 @@
       <c r="B25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="34">
         <v>30000</v>
       </c>
       <c r="D25" s="8"/>
@@ -8081,7 +8069,7 @@
       <c r="B26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="34">
         <v>2000</v>
       </c>
       <c r="D26" s="8"/>
@@ -8090,9 +8078,9 @@
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1"/>
       <c r="B27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="36">
+        <v>36</v>
+      </c>
+      <c r="C27" s="34">
         <v>4000</v>
       </c>
       <c r="D27" s="8"/>
@@ -8101,25 +8089,25 @@
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="8"/>
       <c r="E28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1"/>
       <c r="B29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="C29" s="23"/>
       <c r="D29" s="8"/>
       <c r="E29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1"/>
       <c r="B30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="37">
+        <v>38</v>
+      </c>
+      <c r="C30" s="35">
         <f>C16-C17</f>
       </c>
       <c r="D30" s="8"/>
@@ -8128,9 +8116,9 @@
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1"/>
       <c r="B31" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="37">
+        <v>16</v>
+      </c>
+      <c r="C31" s="35">
         <f>(C16-C17-C18)/C13</f>
       </c>
       <c r="D31" s="8"/>
@@ -8141,7 +8129,7 @@
       <c r="B32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="35">
         <f>C30*(1-$C$7)/C13</f>
       </c>
       <c r="D32" s="8"/>
@@ -8150,70 +8138,70 @@
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="24"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="8"/>
       <c r="E33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="8"/>
       <c r="E34" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="38"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="38"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1"/>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37" s="39">
         <f>IRR('Opdracht_2_berekening en output'!D26:AH26,0.05)</f>
       </c>
-      <c r="D37" s="40"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1"/>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="39">
         <f>IRR('Opdracht_2_berekening en output'!D27:AH27,0.1)</f>
       </c>
-      <c r="D38" s="40"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1"/>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="15">
         <f>SUM('Opdracht_2_berekening en output'!$D25:$AH25)</f>
       </c>
-      <c r="D39" s="40"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="29"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="40">
         <f>MIN('Opdracht_2_berekening en output'!D28:P28)</f>
       </c>
       <c r="D40" s="9"/>
@@ -8221,121 +8209,121 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="38"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="38"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="36"/>
       <c r="E42" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="38"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="38"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="38"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="38"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="36"/>
       <c r="E46" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="38"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="36"/>
       <c r="E47" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="38"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="36"/>
       <c r="E48" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="38"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="36"/>
       <c r="E49" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="38"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="38"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="36"/>
       <c r="E51" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="38"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="36"/>
       <c r="E52" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="38"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="36"/>
       <c r="E53" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="38"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="36"/>
       <c r="E54" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="38"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="36"/>
       <c r="E55" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="38"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="36"/>
       <c r="E56" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="38"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="36"/>
       <c r="E57" s="1"/>
     </row>
   </sheetData>
@@ -8350,30 +8338,30 @@
   </sheetPr>
   <dimension ref="A1:Q181"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="25" width="2.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="25" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="25" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="26" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="26" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="26" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="26" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="26" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="26" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="26" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="26" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="26" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="26" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="26" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="26" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="26" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="24" width="2.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="24" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="24" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="25" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="25" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="25" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="25" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="25" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="25" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="25" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="25" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="25" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="25" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="25" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="25" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -8392,7 +8380,7 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8413,7 +8401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
@@ -8436,7 +8424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="9" t="s">
@@ -8459,7 +8447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="12" t="s">
@@ -8508,7 +8496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="14"/>
@@ -8529,7 +8517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -8550,7 +8538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1"/>
       <c r="B8" s="16">
         <f>Opdracht_2_input_output!A12</f>
@@ -8575,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="14"/>
@@ -8596,7 +8584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="14" t="s">
@@ -8619,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="19">
@@ -8666,7 +8654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="19">
@@ -8713,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="14"/>
@@ -8734,7 +8722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="14" t="s">
@@ -8757,7 +8745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="19">
@@ -8806,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="19">
@@ -8855,7 +8843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="19">
@@ -8904,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="14"/>
@@ -8925,7 +8913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="20" t="s">
@@ -8974,7 +8962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="14"/>
@@ -8995,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="14" t="s">
@@ -9044,7 +9032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="14" t="s">
@@ -9093,7 +9081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="14" t="s">
@@ -9142,7 +9130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="14"/>
@@ -9355,25 +9343,25 @@
       <c r="P28" s="22">
         <f>IF(P5&lt;=Opdracht_2_input_output!$C$13,IF(SUM($D26:P26)&gt;0,P5-(P27/P26),""),"")</f>
       </c>
-      <c r="Q28" s="23"/>
+      <c r="Q28" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
       <c r="Q29" s="7">
         <v>1</v>
       </c>
@@ -9382,19 +9370,19 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
       <c r="Q30" s="7">
         <v>1</v>
       </c>
@@ -9403,19 +9391,19 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
       <c r="Q31" s="7">
         <v>1</v>
       </c>
@@ -9424,19 +9412,19 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
       <c r="Q32" s="7">
         <v>1</v>
       </c>
@@ -9445,19 +9433,19 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
       <c r="Q33" s="7">
         <v>1</v>
       </c>
@@ -9466,19 +9454,19 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
       <c r="Q34" s="7">
         <v>1</v>
       </c>
@@ -9487,19 +9475,19 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
       <c r="Q35" s="7">
         <v>1</v>
       </c>
@@ -9508,19 +9496,19 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
       <c r="Q36" s="7">
         <v>1</v>
       </c>
@@ -9529,19 +9517,19 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
       <c r="Q37" s="7">
         <v>1</v>
       </c>
@@ -9550,19 +9538,19 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
       <c r="Q38" s="7">
         <v>1</v>
       </c>
@@ -9571,19 +9559,19 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
       <c r="Q39" s="7">
         <v>1</v>
       </c>
@@ -9592,19 +9580,19 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
       <c r="Q40" s="7">
         <v>1</v>
       </c>
@@ -9613,19 +9601,19 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
       <c r="Q41" s="7">
         <v>1</v>
       </c>
@@ -9634,19 +9622,19 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
       <c r="Q42" s="7">
         <v>1</v>
       </c>
@@ -9655,19 +9643,19 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
       <c r="Q43" s="7">
         <v>1</v>
       </c>
@@ -9676,19 +9664,19 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
       <c r="Q44" s="7">
         <v>1</v>
       </c>
@@ -9697,19 +9685,19 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
       <c r="Q45" s="7">
         <v>1</v>
       </c>
@@ -9718,19 +9706,19 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
       <c r="Q46" s="7">
         <v>1</v>
       </c>
@@ -9739,19 +9727,19 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
       <c r="Q47" s="7">
         <v>1</v>
       </c>
@@ -9760,19 +9748,19 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
       <c r="Q48" s="7">
         <v>1</v>
       </c>
@@ -9781,19 +9769,19 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
       <c r="Q49" s="7">
         <v>1</v>
       </c>
@@ -9802,19 +9790,19 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
       <c r="Q50" s="7">
         <v>1</v>
       </c>
@@ -9823,19 +9811,19 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
       <c r="Q51" s="7">
         <v>1</v>
       </c>
@@ -9844,19 +9832,19 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
       <c r="Q52" s="7">
         <v>1</v>
       </c>
@@ -9865,19 +9853,19 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
       <c r="Q53" s="7">
         <v>1</v>
       </c>
@@ -9886,19 +9874,19 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
       <c r="Q54" s="7">
         <v>1</v>
       </c>
@@ -9907,19 +9895,19 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
       <c r="Q55" s="7">
         <v>1</v>
       </c>
@@ -9928,19 +9916,19 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
       <c r="Q56" s="7">
         <v>1</v>
       </c>
@@ -9949,19 +9937,19 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
       <c r="Q57" s="7">
         <v>1</v>
       </c>
@@ -9970,19 +9958,19 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
       <c r="Q58" s="7">
         <v>1</v>
       </c>
@@ -9991,19 +9979,19 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="23"/>
       <c r="Q59" s="7">
         <v>1</v>
       </c>
@@ -10012,19 +10000,19 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
       <c r="Q60" s="7">
         <v>1</v>
       </c>
@@ -10033,19 +10021,19 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
       <c r="Q61" s="7">
         <v>1</v>
       </c>

--- a/PraeterBV_Case.xlsx
+++ b/PraeterBV_Case.xlsx
@@ -423,7 +423,7 @@
     <numFmt numFmtId="164" formatCode="#,##0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.00%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,12 +453,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -636,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -713,7 +707,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -809,7 +803,7 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -856,9 +850,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2082,7 +2073,7 @@
       <c r="C21" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="42" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="8"/>
@@ -2178,8 +2169,8 @@
       <c r="I23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
       <c r="L23" s="68"/>
       <c r="M23" s="36"/>
       <c r="N23" s="1"/>
@@ -7813,14 +7804,14 @@
     <col min="5" max="5" style="24" width="13.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="26"/>
       <c r="C1" s="4"/>
       <c r="D1" s="26"/>
       <c r="E1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1"/>
       <c r="B2" s="27" t="s">
         <v>1</v>
@@ -7829,14 +7820,14 @@
       <c r="D2" s="26"/>
       <c r="E2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="26"/>
       <c r="C3" s="4"/>
       <c r="D3" s="26"/>
       <c r="E3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1"/>
       <c r="B4" s="27" t="s">
         <v>13</v>
@@ -7845,7 +7836,7 @@
       <c r="D4" s="26"/>
       <c r="E4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="28" t="s">
         <v>14</v>
@@ -7858,7 +7849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1"/>
       <c r="B6" s="28" t="s">
         <v>16</v>
@@ -7871,7 +7862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="28" t="s">
         <v>19</v>
@@ -7884,7 +7875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="28" t="s">
         <v>21</v>
@@ -7895,7 +7886,7 @@
       <c r="D8" s="28"/>
       <c r="E8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="28" t="s">
         <v>8</v>
@@ -7906,21 +7897,21 @@
       <c r="D9" s="28"/>
       <c r="E9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="26"/>
       <c r="C10" s="4"/>
       <c r="D10" s="26"/>
       <c r="E10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="26"/>
       <c r="C11" s="4"/>
       <c r="D11" s="26"/>
       <c r="E11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -7933,7 +7924,7 @@
       <c r="D12" s="26"/>
       <c r="E12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="8" t="s">
         <v>25</v>
@@ -7946,7 +7937,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="8" t="s">
         <v>27</v>
@@ -7959,14 +7950,14 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="8"/>
       <c r="C15" s="23"/>
       <c r="D15" s="8"/>
       <c r="E15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="8" t="s">
         <v>28</v>
@@ -7977,7 +7968,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="8" t="s">
         <v>29</v>
@@ -7988,7 +7979,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="8" t="s">
         <v>30</v>
@@ -7999,14 +7990,14 @@
       <c r="D18" s="8"/>
       <c r="E18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="8"/>
       <c r="C19" s="23"/>
       <c r="D19" s="8"/>
       <c r="E19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
       <c r="B20" s="8" t="s">
         <v>3</v>
@@ -8015,7 +8006,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
       <c r="B21" s="8" t="s">
         <v>31</v>
@@ -8037,14 +8028,14 @@
       <c r="D22" s="8"/>
       <c r="E22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="8"/>
       <c r="C23" s="23"/>
       <c r="D23" s="8"/>
       <c r="E23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="8" t="s">
         <v>33</v>
@@ -8053,7 +8044,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
       <c r="B25" s="8" t="s">
         <v>34</v>
@@ -8064,7 +8055,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="8" t="s">
         <v>35</v>
@@ -8075,7 +8066,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="8" t="s">
         <v>36</v>
@@ -8086,14 +8077,14 @@
       <c r="D27" s="8"/>
       <c r="E27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
       <c r="C28" s="23"/>
       <c r="D28" s="8"/>
       <c r="E28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
       <c r="B29" s="8" t="s">
         <v>37</v>
@@ -8102,7 +8093,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
       <c r="B30" s="8" t="s">
         <v>38</v>
@@ -8113,7 +8104,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
       <c r="B31" s="8" t="s">
         <v>16</v>
@@ -8124,7 +8115,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
       <c r="B32" s="8" t="s">
         <v>39</v>
@@ -8135,35 +8126,35 @@
       <c r="D32" s="8"/>
       <c r="E32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1"/>
       <c r="B33" s="8"/>
       <c r="C33" s="23"/>
       <c r="D33" s="8"/>
       <c r="E33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1"/>
       <c r="B34" s="8"/>
       <c r="C34" s="23"/>
       <c r="D34" s="8"/>
       <c r="E34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1"/>
       <c r="B35" s="36"/>
       <c r="C35" s="37"/>
       <c r="D35" s="36"/>
       <c r="E35" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1"/>
       <c r="B36" s="36"/>
       <c r="C36" s="37"/>
       <c r="D36" s="36"/>
       <c r="E36" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
       <c r="A37" s="1"/>
       <c r="B37" s="38" t="s">
         <v>40</v>
@@ -8174,7 +8165,7 @@
       <c r="D37" s="38"/>
       <c r="E37" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
       <c r="A38" s="1"/>
       <c r="B38" s="38" t="s">
         <v>41</v>
@@ -8185,7 +8176,7 @@
       <c r="D38" s="38"/>
       <c r="E38" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
       <c r="A39" s="1"/>
       <c r="B39" s="38" t="s">
         <v>9</v>
@@ -8196,7 +8187,7 @@
       <c r="D39" s="38"/>
       <c r="E39" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
       <c r="A40" s="27"/>
       <c r="B40" s="9" t="s">
         <v>12</v>
@@ -8207,28 +8198,28 @@
       <c r="D40" s="9"/>
       <c r="E40" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="1"/>
       <c r="B41" s="36"/>
       <c r="C41" s="37"/>
       <c r="D41" s="36"/>
       <c r="E41" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1"/>
       <c r="B42" s="36"/>
       <c r="C42" s="37"/>
       <c r="D42" s="36"/>
       <c r="E42" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1"/>
       <c r="B43" s="36"/>
       <c r="C43" s="37"/>
       <c r="D43" s="36"/>
       <c r="E43" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1"/>
       <c r="B44" s="36"/>
       <c r="C44" s="37"/>
